--- a/BackTest/2019-10-15 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-15 BackTest STRAT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>93</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>17.39130434782609</v>
+      </c>
       <c r="L12" t="n">
         <v>777</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>97</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>5.617977528089887</v>
+      </c>
       <c r="L13" t="n">
         <v>778.2</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>105</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-6.382978723404255</v>
+      </c>
       <c r="L14" t="n">
         <v>777.9</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>105</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>7.317073170731707</v>
+      </c>
       <c r="L15" t="n">
         <v>777.3</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>120</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-6.382978723404255</v>
+      </c>
       <c r="L16" t="n">
         <v>776.4</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>128</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-46.83544303797468</v>
+      </c>
       <c r="L17" t="n">
         <v>775</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>136</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L18" t="n">
         <v>772.1</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>161</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-40.20618556701031</v>
+      </c>
       <c r="L19" t="n">
         <v>766.7</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>191</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-0.8403361344537815</v>
+      </c>
       <c r="L20" t="n">
         <v>765.8</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>197</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-15.38461538461539</v>
+      </c>
       <c r="L21" t="n">
         <v>766.3</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>226</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-31.78294573643411</v>
+      </c>
       <c r="L22" t="n">
         <v>761.8</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>228</v>
       </c>
       <c r="K23" t="n">
-        <v>-13.65638766519824</v>
+        <v>-28.45528455284553</v>
       </c>
       <c r="L23" t="n">
         <v>757.5</v>
@@ -1466,7 +1488,7 @@
         <v>228</v>
       </c>
       <c r="K24" t="n">
-        <v>-17.27272727272727</v>
+        <v>-28.45528455284553</v>
       </c>
       <c r="L24" t="n">
         <v>754</v>
@@ -1515,7 +1537,7 @@
         <v>260</v>
       </c>
       <c r="K25" t="n">
-        <v>-3.614457831325301</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L25" t="n">
         <v>753.7</v>
@@ -1564,7 +1586,7 @@
         <v>285</v>
       </c>
       <c r="K26" t="n">
-        <v>-8.396946564885496</v>
+        <v>-3.184713375796179</v>
       </c>
       <c r="L26" t="n">
         <v>752.4</v>
@@ -1613,7 +1635,7 @@
         <v>295</v>
       </c>
       <c r="K27" t="n">
-        <v>-10.78066914498141</v>
+        <v>-14.46540880503145</v>
       </c>
       <c r="L27" t="n">
         <v>750.9</v>
@@ -1662,7 +1684,7 @@
         <v>299</v>
       </c>
       <c r="K28" t="n">
-        <v>-19.2</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L28" t="n">
         <v>749</v>
@@ -1711,7 +1733,7 @@
         <v>317</v>
       </c>
       <c r="K29" t="n">
-        <v>-11.19402985074627</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L29" t="n">
         <v>751.4</v>
@@ -1760,7 +1782,7 @@
         <v>336</v>
       </c>
       <c r="K30" t="n">
-        <v>-12.5</v>
+        <v>-22.30215827338129</v>
       </c>
       <c r="L30" t="n">
         <v>748.9</v>
@@ -1809,7 +1831,7 @@
         <v>350</v>
       </c>
       <c r="K31" t="n">
-        <v>-4.316546762589928</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L31" t="n">
         <v>747.2</v>
@@ -1860,7 +1882,7 @@
         <v>366</v>
       </c>
       <c r="K32" t="n">
-        <v>-17.94871794871795</v>
+        <v>-1.449275362318841</v>
       </c>
       <c r="L32" t="n">
         <v>746.8</v>
@@ -1911,7 +1933,7 @@
         <v>366</v>
       </c>
       <c r="K33" t="n">
-        <v>-16.72862453531599</v>
+        <v>-1.449275362318841</v>
       </c>
       <c r="L33" t="n">
         <v>746.6</v>
@@ -1962,7 +1984,7 @@
         <v>383</v>
       </c>
       <c r="K34" t="n">
-        <v>-19.42446043165468</v>
+        <v>-41.46341463414634</v>
       </c>
       <c r="L34" t="n">
         <v>744.7</v>
@@ -2013,7 +2035,7 @@
         <v>384</v>
       </c>
       <c r="K35" t="n">
-        <v>-18.99641577060932</v>
+        <v>-25.25252525252525</v>
       </c>
       <c r="L35" t="n">
         <v>739.7</v>
@@ -2064,7 +2086,7 @@
         <v>390</v>
       </c>
       <c r="K36" t="n">
-        <v>-16.2962962962963</v>
+        <v>-22.10526315789474</v>
       </c>
       <c r="L36" t="n">
         <v>736.6</v>
@@ -2115,7 +2137,7 @@
         <v>407</v>
       </c>
       <c r="K37" t="n">
-        <v>-6.810035842293908</v>
+        <v>-7.407407407407407</v>
       </c>
       <c r="L37" t="n">
         <v>736.2</v>
@@ -2166,7 +2188,7 @@
         <v>409</v>
       </c>
       <c r="K38" t="n">
-        <v>-10.62271062271062</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L38" t="n">
         <v>735.2</v>
@@ -2217,7 +2239,7 @@
         <v>416</v>
       </c>
       <c r="K39" t="n">
-        <v>1.176470588235294</v>
+        <v>-2.5</v>
       </c>
       <c r="L39" t="n">
         <v>733.1</v>
@@ -2268,7 +2290,7 @@
         <v>416</v>
       </c>
       <c r="K40" t="n">
-        <v>-12</v>
+        <v>-24.24242424242424</v>
       </c>
       <c r="L40" t="n">
         <v>732.9</v>
@@ -2319,7 +2341,7 @@
         <v>435</v>
       </c>
       <c r="K41" t="n">
-        <v>-21.84873949579832</v>
+        <v>-27.53623188405797</v>
       </c>
       <c r="L41" t="n">
         <v>729.4</v>
@@ -2370,7 +2392,7 @@
         <v>441</v>
       </c>
       <c r="K42" t="n">
-        <v>-13.48837209302326</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>726.9</v>
@@ -2421,7 +2443,7 @@
         <v>444</v>
       </c>
       <c r="K43" t="n">
-        <v>-13.88888888888889</v>
+        <v>-18.0327868852459</v>
       </c>
       <c r="L43" t="n">
         <v>724.1</v>
@@ -2472,7 +2494,7 @@
         <v>444</v>
       </c>
       <c r="K44" t="n">
-        <v>-13.88888888888889</v>
+        <v>-20</v>
       </c>
       <c r="L44" t="n">
         <v>723</v>
@@ -2523,7 +2545,7 @@
         <v>445</v>
       </c>
       <c r="K45" t="n">
-        <v>-32.97297297297298</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L45" t="n">
         <v>721.9</v>
@@ -2574,7 +2596,7 @@
         <v>452</v>
       </c>
       <c r="K46" t="n">
-        <v>-25.74850299401198</v>
+        <v>-64.44444444444444</v>
       </c>
       <c r="L46" t="n">
         <v>720.7</v>
@@ -2625,7 +2647,7 @@
         <v>453</v>
       </c>
       <c r="K47" t="n">
-        <v>-20.25316455696203</v>
+        <v>-59.09090909090909</v>
       </c>
       <c r="L47" t="n">
         <v>717.9</v>
@@ -2676,7 +2698,7 @@
         <v>453</v>
       </c>
       <c r="K48" t="n">
-        <v>-23.37662337662337</v>
+        <v>-89.18918918918919</v>
       </c>
       <c r="L48" t="n">
         <v>715.3</v>
@@ -2727,7 +2749,7 @@
         <v>471</v>
       </c>
       <c r="K49" t="n">
-        <v>-23.37662337662337</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L49" t="n">
         <v>713.8</v>
@@ -2778,7 +2800,7 @@
         <v>482</v>
       </c>
       <c r="K50" t="n">
-        <v>-19.17808219178082</v>
+        <v>-14.8936170212766</v>
       </c>
       <c r="L50" t="n">
         <v>711.2</v>
@@ -2829,7 +2851,7 @@
         <v>483</v>
       </c>
       <c r="K51" t="n">
-        <v>-30.82706766917293</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>710.6</v>
@@ -2880,7 +2902,7 @@
         <v>496</v>
       </c>
       <c r="K52" t="n">
-        <v>-29.23076923076923</v>
+        <v>-19.23076923076923</v>
       </c>
       <c r="L52" t="n">
         <v>709.3</v>
@@ -2931,7 +2953,7 @@
         <v>508</v>
       </c>
       <c r="K53" t="n">
-        <v>-18.30985915492958</v>
+        <v>3.125</v>
       </c>
       <c r="L53" t="n">
         <v>709.5</v>
@@ -2982,7 +3004,7 @@
         <v>509</v>
       </c>
       <c r="K54" t="n">
-        <v>-7.936507936507936</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>709.6</v>
@@ -3033,7 +3055,7 @@
         <v>516</v>
       </c>
       <c r="K55" t="n">
-        <v>-13.63636363636363</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>708.9</v>
@@ -3084,7 +3106,7 @@
         <v>525</v>
       </c>
       <c r="K56" t="n">
-        <v>-2.222222222222222</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L56" t="n">
         <v>709.8</v>
@@ -3135,7 +3157,7 @@
         <v>544</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.7299270072992701</v>
+        <v>29.67032967032967</v>
       </c>
       <c r="L57" t="n">
         <v>712.5</v>
@@ -3186,7 +3208,7 @@
         <v>566</v>
       </c>
       <c r="K58" t="n">
-        <v>-13.37579617834395</v>
+        <v>-13.68421052631579</v>
       </c>
       <c r="L58" t="n">
         <v>713</v>
@@ -3237,7 +3259,7 @@
         <v>566</v>
       </c>
       <c r="K59" t="n">
-        <v>-18.66666666666667</v>
+        <v>-2.380952380952381</v>
       </c>
       <c r="L59" t="n">
         <v>711.7</v>
@@ -3288,7 +3310,7 @@
         <v>566</v>
       </c>
       <c r="K60" t="n">
-        <v>-18.66666666666667</v>
+        <v>-3.614457831325301</v>
       </c>
       <c r="L60" t="n">
         <v>711.5</v>
@@ -3339,7 +3361,7 @@
         <v>567</v>
       </c>
       <c r="K61" t="n">
-        <v>-6.060606060606061</v>
+        <v>15.49295774647887</v>
       </c>
       <c r="L61" t="n">
         <v>711.3</v>
@@ -3390,7 +3412,7 @@
         <v>579</v>
       </c>
       <c r="K62" t="n">
-        <v>7.246376811594203</v>
+        <v>15.49295774647887</v>
       </c>
       <c r="L62" t="n">
         <v>713.6</v>
@@ -3441,7 +3463,7 @@
         <v>580</v>
       </c>
       <c r="K63" t="n">
-        <v>10.29411764705882</v>
+        <v>18.30985915492958</v>
       </c>
       <c r="L63" t="n">
         <v>714.8</v>
@@ -3492,7 +3514,7 @@
         <v>593</v>
       </c>
       <c r="K64" t="n">
-        <v>0.6711409395973155</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L64" t="n">
         <v>714.8</v>
@@ -3543,7 +3565,7 @@
         <v>594</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.6711409395973155</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L65" t="n">
         <v>715.4</v>
@@ -3594,7 +3616,7 @@
         <v>594</v>
       </c>
       <c r="K66" t="n">
-        <v>4.225352112676056</v>
+        <v>-44</v>
       </c>
       <c r="L66" t="n">
         <v>715.1</v>
@@ -3645,7 +3667,7 @@
         <v>594</v>
       </c>
       <c r="K67" t="n">
-        <v>3.546099290780142</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>712.9</v>
@@ -3696,7 +3718,7 @@
         <v>594</v>
       </c>
       <c r="K68" t="n">
-        <v>3.546099290780142</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>712.9</v>
@@ -3747,7 +3769,7 @@
         <v>594</v>
       </c>
       <c r="K69" t="n">
-        <v>-10.56910569105691</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>712.9</v>
@@ -3798,7 +3820,7 @@
         <v>616</v>
       </c>
       <c r="K70" t="n">
-        <v>-17.91044776119403</v>
+        <v>-46.93877551020408</v>
       </c>
       <c r="L70" t="n">
         <v>710.7</v>
@@ -3849,7 +3871,7 @@
         <v>640</v>
       </c>
       <c r="K71" t="n">
-        <v>-0.6369426751592357</v>
+        <v>-18.0327868852459</v>
       </c>
       <c r="L71" t="n">
         <v>710.8</v>
@@ -3900,7 +3922,7 @@
         <v>640</v>
       </c>
       <c r="K72" t="n">
-        <v>8.333333333333332</v>
+        <v>-20</v>
       </c>
       <c r="L72" t="n">
         <v>709.7</v>
@@ -3951,7 +3973,7 @@
         <v>641</v>
       </c>
       <c r="K73" t="n">
-        <v>0.7518796992481203</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="L73" t="n">
         <v>708.6</v>
@@ -4002,7 +4024,7 @@
         <v>642</v>
       </c>
       <c r="K74" t="n">
-        <v>0.7518796992481203</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="L74" t="n">
         <v>708.7</v>
@@ -4053,7 +4075,7 @@
         <v>654</v>
       </c>
       <c r="K75" t="n">
-        <v>-2.898550724637681</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L75" t="n">
         <v>707.7</v>
@@ -4104,7 +4126,7 @@
         <v>657</v>
       </c>
       <c r="K76" t="n">
-        <v>-7.575757575757576</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L76" t="n">
         <v>707</v>
@@ -4155,7 +4177,7 @@
         <v>663</v>
       </c>
       <c r="K77" t="n">
-        <v>-29.41176470588236</v>
+        <v>-18.84057971014493</v>
       </c>
       <c r="L77" t="n">
         <v>705.7</v>
@@ -4206,7 +4228,7 @@
         <v>666</v>
       </c>
       <c r="K78" t="n">
-        <v>-10</v>
+        <v>-13.88888888888889</v>
       </c>
       <c r="L78" t="n">
         <v>704.7</v>
@@ -4257,7 +4279,7 @@
         <v>679</v>
       </c>
       <c r="K79" t="n">
-        <v>2.654867256637168</v>
+        <v>39.68253968253968</v>
       </c>
       <c r="L79" t="n">
         <v>705</v>
@@ -4308,7 +4330,7 @@
         <v>681</v>
       </c>
       <c r="K80" t="n">
-        <v>0.8695652173913043</v>
+        <v>-2.439024390243902</v>
       </c>
       <c r="L80" t="n">
         <v>707.3</v>
@@ -4359,7 +4381,7 @@
         <v>681</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>-2.439024390243902</v>
       </c>
       <c r="L81" t="n">
         <v>707.2</v>
@@ -4410,7 +4432,7 @@
         <v>689</v>
       </c>
       <c r="K82" t="n">
-        <v>-3.636363636363636</v>
+        <v>12.5</v>
       </c>
       <c r="L82" t="n">
         <v>707.9</v>
@@ -4461,7 +4483,7 @@
         <v>691</v>
       </c>
       <c r="K83" t="n">
-        <v>-2.702702702702703</v>
+        <v>18.36734693877551</v>
       </c>
       <c r="L83" t="n">
         <v>708.7</v>
@@ -4512,7 +4534,7 @@
         <v>701</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>23.40425531914894</v>
       </c>
       <c r="L84" t="n">
         <v>708.6</v>
@@ -4563,7 +4585,7 @@
         <v>712</v>
       </c>
       <c r="K85" t="n">
-        <v>-8.474576271186439</v>
+        <v>-5.454545454545454</v>
       </c>
       <c r="L85" t="n">
         <v>708.6</v>
@@ -4614,7 +4636,7 @@
         <v>714</v>
       </c>
       <c r="K86" t="n">
-        <v>-6.666666666666667</v>
+        <v>9.803921568627452</v>
       </c>
       <c r="L86" t="n">
         <v>708.5</v>
@@ -4665,7 +4687,7 @@
         <v>715</v>
       </c>
       <c r="K87" t="n">
-        <v>-7.43801652892562</v>
+        <v>2.040816326530612</v>
       </c>
       <c r="L87" t="n">
         <v>708.9</v>
@@ -4716,7 +4738,7 @@
         <v>716</v>
       </c>
       <c r="K88" t="n">
-        <v>-6.557377049180328</v>
+        <v>-29.72972972972973</v>
       </c>
       <c r="L88" t="n">
         <v>709.1</v>
@@ -4767,7 +4789,7 @@
         <v>725</v>
       </c>
       <c r="K89" t="n">
-        <v>0.7633587786259541</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>708.9</v>
@@ -4818,7 +4840,7 @@
         <v>725</v>
       </c>
       <c r="K90" t="n">
-        <v>21.10091743119266</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>708.9</v>
@@ -4869,7 +4891,7 @@
         <v>725</v>
       </c>
       <c r="K91" t="n">
-        <v>-1.176470588235294</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L91" t="n">
         <v>708.9</v>
@@ -4920,7 +4942,7 @@
         <v>733</v>
       </c>
       <c r="K92" t="n">
-        <v>7.526881720430108</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L92" t="n">
         <v>708.9</v>
@@ -4971,7 +4993,7 @@
         <v>733</v>
       </c>
       <c r="K93" t="n">
-        <v>6.521739130434782</v>
+        <v>25</v>
       </c>
       <c r="L93" t="n">
         <v>708.7</v>
@@ -5022,7 +5044,7 @@
         <v>734</v>
       </c>
       <c r="K94" t="n">
-        <v>8.695652173913043</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="L94" t="n">
         <v>709.6</v>
@@ -5073,7 +5095,7 @@
         <v>734</v>
       </c>
       <c r="K95" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="L95" t="n">
         <v>711.6</v>
@@ -5124,7 +5146,7 @@
         <v>734</v>
       </c>
       <c r="K96" t="n">
-        <v>22.07792207792208</v>
+        <v>100</v>
       </c>
       <c r="L96" t="n">
         <v>713.4</v>
@@ -5175,7 +5197,7 @@
         <v>753</v>
       </c>
       <c r="K97" t="n">
-        <v>4.444444444444445</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L97" t="n">
         <v>713.4</v>
@@ -5226,7 +5248,7 @@
         <v>766</v>
       </c>
       <c r="K98" t="n">
-        <v>-12</v>
+        <v>-56.09756097560976</v>
       </c>
       <c r="L98" t="n">
         <v>712</v>
@@ -5277,7 +5299,7 @@
         <v>770</v>
       </c>
       <c r="K99" t="n">
-        <v>-31.86813186813187</v>
+        <v>-60</v>
       </c>
       <c r="L99" t="n">
         <v>709.3</v>
@@ -5328,7 +5350,7 @@
         <v>781</v>
       </c>
       <c r="K100" t="n">
-        <v>-16</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L100" t="n">
         <v>707.7</v>
@@ -5379,7 +5401,7 @@
         <v>792</v>
       </c>
       <c r="K101" t="n">
-        <v>-24.32432432432433</v>
+        <v>-59.32203389830508</v>
       </c>
       <c r="L101" t="n">
         <v>705</v>

--- a/BackTest/2019-10-15 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-15 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S101"/>
+  <dimension ref="A1:M120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,65 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -463,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C2" t="n">
         <v>770</v>
@@ -472,28 +442,24 @@
         <v>770</v>
       </c>
       <c r="E2" t="n">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="F2" t="n">
-        <v>7001.6921</v>
+        <v>8676.1801</v>
       </c>
       <c r="G2" t="n">
-        <v>770.3166666666667</v>
+        <v>53137.52950280001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -502,41 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C3" t="n">
-        <v>771</v>
+        <v>800</v>
       </c>
       <c r="D3" t="n">
-        <v>787</v>
+        <v>800</v>
       </c>
       <c r="E3" t="n">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F3" t="n">
-        <v>352.6194526</v>
+        <v>3020.79729189</v>
       </c>
       <c r="G3" t="n">
-        <v>769.85</v>
+        <v>56158.32679469001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -545,41 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>771</v>
+        <v>800</v>
       </c>
       <c r="C4" t="n">
-        <v>778</v>
+        <v>807</v>
       </c>
       <c r="D4" t="n">
-        <v>778</v>
+        <v>807</v>
       </c>
       <c r="E4" t="n">
-        <v>771</v>
+        <v>800</v>
       </c>
       <c r="F4" t="n">
-        <v>588.405</v>
+        <v>526.61617337</v>
       </c>
       <c r="G4" t="n">
-        <v>770.2</v>
+        <v>56684.94296806001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,41 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>781</v>
+        <v>792</v>
       </c>
       <c r="C5" t="n">
-        <v>781</v>
+        <v>806</v>
       </c>
       <c r="D5" t="n">
-        <v>782</v>
+        <v>806</v>
       </c>
       <c r="E5" t="n">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="F5" t="n">
-        <v>2034.6376</v>
+        <v>2596.4249</v>
       </c>
       <c r="G5" t="n">
-        <v>770.2666666666667</v>
+        <v>54088.51806806001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -631,41 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>770</v>
+        <v>789</v>
       </c>
       <c r="C6" t="n">
-        <v>769</v>
+        <v>789</v>
       </c>
       <c r="D6" t="n">
-        <v>770</v>
+        <v>789</v>
       </c>
       <c r="E6" t="n">
-        <v>769</v>
+        <v>789</v>
       </c>
       <c r="F6" t="n">
-        <v>688.6622</v>
+        <v>94.19110000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>770.1333333333333</v>
+        <v>53994.32696806001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -674,41 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>769</v>
+        <v>787</v>
       </c>
       <c r="C7" t="n">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="D7" t="n">
-        <v>769</v>
+        <v>791</v>
       </c>
       <c r="E7" t="n">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="F7" t="n">
-        <v>1613.3301</v>
+        <v>4779.7477</v>
       </c>
       <c r="G7" t="n">
-        <v>769.9833333333333</v>
+        <v>49214.57926806001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -717,41 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C8" t="n">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="D8" t="n">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="E8" t="n">
         <v>774</v>
       </c>
       <c r="F8" t="n">
-        <v>2078.77382623</v>
+        <v>1840.0663</v>
       </c>
       <c r="G8" t="n">
-        <v>769.8333333333334</v>
+        <v>49214.57926806001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>19</v>
-      </c>
-      <c r="J8" t="n">
-        <v>49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -760,41 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="C9" t="n">
-        <v>789</v>
+        <v>768</v>
       </c>
       <c r="D9" t="n">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="E9" t="n">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="F9" t="n">
-        <v>218.60291508</v>
+        <v>122.1946</v>
       </c>
       <c r="G9" t="n">
-        <v>769.8666666666667</v>
+        <v>49092.38466806</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>19</v>
-      </c>
-      <c r="J9" t="n">
-        <v>49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -803,41 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C10" t="n">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="D10" t="n">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="E10" t="n">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="F10" t="n">
-        <v>25</v>
+        <v>294.5036</v>
       </c>
       <c r="G10" t="n">
-        <v>769.85</v>
+        <v>49386.88826806001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -846,43 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="C11" t="n">
-        <v>766</v>
+        <v>733</v>
       </c>
       <c r="D11" t="n">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="E11" t="n">
-        <v>766</v>
+        <v>733</v>
       </c>
       <c r="F11" t="n">
-        <v>688.7115</v>
+        <v>966.5123</v>
       </c>
       <c r="G11" t="n">
-        <v>769.65</v>
+        <v>48420.37596806001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>775.3</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -891,45 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>787</v>
+        <v>757</v>
       </c>
       <c r="C12" t="n">
-        <v>787</v>
+        <v>759</v>
       </c>
       <c r="D12" t="n">
-        <v>787</v>
+        <v>770</v>
       </c>
       <c r="E12" t="n">
-        <v>787</v>
+        <v>757</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>3259.65083576</v>
       </c>
       <c r="G12" t="n">
-        <v>769.4833333333333</v>
+        <v>51680.02680382001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>17</v>
-      </c>
-      <c r="J12" t="n">
-        <v>93</v>
-      </c>
-      <c r="K12" t="n">
-        <v>17.39130434782609</v>
-      </c>
-      <c r="L12" t="n">
-        <v>777</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,45 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="C13" t="n">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="D13" t="n">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="E13" t="n">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F13" t="n">
-        <v>4273.9251</v>
+        <v>2756.1664</v>
       </c>
       <c r="G13" t="n">
-        <v>769.25</v>
+        <v>54436.19320382001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
-      </c>
-      <c r="J13" t="n">
-        <v>97</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5.617977528089887</v>
-      </c>
-      <c r="L13" t="n">
-        <v>778.2</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -985,45 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="C14" t="n">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="D14" t="n">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="E14" t="n">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="F14" t="n">
-        <v>3691.02913176</v>
+        <v>3282.3667</v>
       </c>
       <c r="G14" t="n">
-        <v>769.1</v>
+        <v>54436.19320382001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>105</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-6.382978723404255</v>
-      </c>
-      <c r="L14" t="n">
-        <v>777.9</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1032,45 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="C15" t="n">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="D15" t="n">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="E15" t="n">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="F15" t="n">
-        <v>483.04308387</v>
+        <v>487.95106424</v>
       </c>
       <c r="G15" t="n">
-        <v>768.9333333333333</v>
+        <v>54436.19320382001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>105</v>
-      </c>
-      <c r="K15" t="n">
-        <v>7.317073170731707</v>
-      </c>
-      <c r="L15" t="n">
-        <v>777.3</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1079,45 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C16" t="n">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="D16" t="n">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E16" t="n">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="F16" t="n">
-        <v>1497.3282</v>
+        <v>51.63913576</v>
       </c>
       <c r="G16" t="n">
-        <v>768.4</v>
+        <v>54436.19320382001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J16" t="n">
-        <v>120</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-6.382978723404255</v>
-      </c>
-      <c r="L16" t="n">
-        <v>776.4</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1126,45 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="C17" t="n">
-        <v>752</v>
+        <v>767</v>
       </c>
       <c r="D17" t="n">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="E17" t="n">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="F17" t="n">
-        <v>7010</v>
+        <v>73.60466424000001</v>
       </c>
       <c r="G17" t="n">
-        <v>767.75</v>
+        <v>54436.19320382001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-18</v>
-      </c>
-      <c r="J17" t="n">
-        <v>128</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-46.83544303797468</v>
-      </c>
-      <c r="L17" t="n">
-        <v>775</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1173,45 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>752</v>
+        <v>772</v>
       </c>
       <c r="C18" t="n">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="D18" t="n">
-        <v>760</v>
+        <v>784</v>
       </c>
       <c r="E18" t="n">
-        <v>752</v>
+        <v>772</v>
       </c>
       <c r="F18" t="n">
-        <v>320.7258</v>
+        <v>763.89687257</v>
       </c>
       <c r="G18" t="n">
-        <v>767.2333333333333</v>
+        <v>55200.09007639001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J18" t="n">
-        <v>136</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L18" t="n">
-        <v>772.1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1220,45 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>762</v>
+        <v>784</v>
       </c>
       <c r="C19" t="n">
-        <v>735</v>
+        <v>773</v>
       </c>
       <c r="D19" t="n">
-        <v>762</v>
+        <v>784</v>
       </c>
       <c r="E19" t="n">
-        <v>735</v>
+        <v>773</v>
       </c>
       <c r="F19" t="n">
-        <v>2667.56006302</v>
+        <v>626.93069598</v>
       </c>
       <c r="G19" t="n">
-        <v>766.5166666666667</v>
+        <v>55200.09007639001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J19" t="n">
-        <v>161</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-40.20618556701031</v>
-      </c>
-      <c r="L19" t="n">
-        <v>766.7</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1267,45 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>728</v>
+        <v>782</v>
       </c>
       <c r="C20" t="n">
-        <v>765</v>
+        <v>782</v>
       </c>
       <c r="D20" t="n">
-        <v>765</v>
+        <v>782</v>
       </c>
       <c r="E20" t="n">
-        <v>728</v>
+        <v>782</v>
       </c>
       <c r="F20" t="n">
-        <v>261.6803</v>
+        <v>81.5368</v>
       </c>
       <c r="G20" t="n">
-        <v>766.2666666666667</v>
+        <v>55281.62687639002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>191</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-0.8403361344537815</v>
-      </c>
-      <c r="L20" t="n">
-        <v>765.8</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1314,47 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>745</v>
+        <v>782</v>
       </c>
       <c r="C21" t="n">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="D21" t="n">
-        <v>771</v>
+        <v>786</v>
       </c>
       <c r="E21" t="n">
-        <v>745</v>
+        <v>774</v>
       </c>
       <c r="F21" t="n">
-        <v>195.85841193</v>
+        <v>1587.91906632</v>
       </c>
       <c r="G21" t="n">
-        <v>765.5333333333333</v>
+        <v>53693.70781007002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>197</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-15.38461538461539</v>
-      </c>
-      <c r="L21" t="n">
-        <v>766.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>770.8</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1363,47 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>742</v>
+        <v>773</v>
       </c>
       <c r="C22" t="n">
-        <v>742</v>
+        <v>773</v>
       </c>
       <c r="D22" t="n">
-        <v>742</v>
+        <v>773</v>
       </c>
       <c r="E22" t="n">
-        <v>742</v>
+        <v>773</v>
       </c>
       <c r="F22" t="n">
-        <v>11.1607</v>
+        <v>1352.7347</v>
       </c>
       <c r="G22" t="n">
-        <v>764.8</v>
+        <v>52340.97311007002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-28</v>
-      </c>
-      <c r="J22" t="n">
-        <v>226</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-31.78294573643411</v>
-      </c>
-      <c r="L22" t="n">
-        <v>761.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>769.4</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1412,47 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>740</v>
+        <v>762</v>
       </c>
       <c r="C23" t="n">
-        <v>740</v>
+        <v>762</v>
       </c>
       <c r="D23" t="n">
-        <v>740</v>
+        <v>762</v>
       </c>
       <c r="E23" t="n">
-        <v>740</v>
+        <v>762</v>
       </c>
       <c r="F23" t="n">
-        <v>78.17019999999999</v>
+        <v>11.1692</v>
       </c>
       <c r="G23" t="n">
-        <v>765.85</v>
+        <v>52329.80391007002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J23" t="n">
-        <v>228</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-28.45528455284553</v>
-      </c>
-      <c r="L23" t="n">
-        <v>757.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>767.85</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1461,47 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>740</v>
+        <v>764</v>
       </c>
       <c r="C24" t="n">
-        <v>740</v>
+        <v>764</v>
       </c>
       <c r="D24" t="n">
-        <v>740</v>
+        <v>764</v>
       </c>
       <c r="E24" t="n">
-        <v>740</v>
+        <v>764</v>
       </c>
       <c r="F24" t="n">
-        <v>500</v>
+        <v>222.938</v>
       </c>
       <c r="G24" t="n">
-        <v>765.4666666666667</v>
+        <v>52552.74191007002</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J24" t="n">
-        <v>228</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-28.45528455284553</v>
-      </c>
-      <c r="L24" t="n">
-        <v>754</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>765.95</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1510,47 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>743</v>
+        <v>772</v>
       </c>
       <c r="C25" t="n">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="D25" t="n">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E25" t="n">
-        <v>743</v>
+        <v>765</v>
       </c>
       <c r="F25" t="n">
-        <v>1972.14255388</v>
+        <v>573.9406</v>
       </c>
       <c r="G25" t="n">
-        <v>766</v>
+        <v>53126.68251007002</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>260</v>
-      </c>
-      <c r="K25" t="n">
-        <v>8.571428571428571</v>
-      </c>
-      <c r="L25" t="n">
-        <v>753.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>765.5</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1559,47 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="C26" t="n">
-        <v>747</v>
+        <v>768</v>
       </c>
       <c r="D26" t="n">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="E26" t="n">
-        <v>747</v>
+        <v>768</v>
       </c>
       <c r="F26" t="n">
-        <v>129.8684</v>
+        <v>101.6576</v>
       </c>
       <c r="G26" t="n">
-        <v>766.5666666666667</v>
+        <v>53228.34011007002</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-23</v>
-      </c>
-      <c r="J26" t="n">
-        <v>285</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-3.184713375796179</v>
-      </c>
-      <c r="L26" t="n">
-        <v>752.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>764.4</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1608,47 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>737</v>
+        <v>769</v>
       </c>
       <c r="C27" t="n">
-        <v>737</v>
+        <v>769</v>
       </c>
       <c r="D27" t="n">
-        <v>737</v>
+        <v>769</v>
       </c>
       <c r="E27" t="n">
-        <v>737</v>
+        <v>769</v>
       </c>
       <c r="F27" t="n">
-        <v>29</v>
+        <v>57.7</v>
       </c>
       <c r="G27" t="n">
-        <v>766.9833333333333</v>
+        <v>53286.04011007002</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-33</v>
-      </c>
-      <c r="J27" t="n">
-        <v>295</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-14.46540880503145</v>
-      </c>
-      <c r="L27" t="n">
-        <v>750.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>762.95</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1657,47 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>740</v>
+        <v>769</v>
       </c>
       <c r="C28" t="n">
-        <v>741</v>
+        <v>769</v>
       </c>
       <c r="D28" t="n">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="E28" t="n">
-        <v>740</v>
+        <v>769</v>
       </c>
       <c r="F28" t="n">
-        <v>1105.45399843</v>
+        <v>142.3</v>
       </c>
       <c r="G28" t="n">
-        <v>766.9166666666666</v>
+        <v>53286.04011007002</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-29</v>
-      </c>
-      <c r="J28" t="n">
-        <v>299</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="L28" t="n">
-        <v>749</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>760.55</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1706,47 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="C29" t="n">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="D29" t="n">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="E29" t="n">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G29" t="n">
-        <v>767.5166666666667</v>
+        <v>53286.04011007002</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J29" t="n">
-        <v>317</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-4.761904761904762</v>
-      </c>
-      <c r="L29" t="n">
-        <v>751.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>759.05</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1755,47 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>740</v>
+        <v>770</v>
       </c>
       <c r="C30" t="n">
-        <v>740</v>
+        <v>770</v>
       </c>
       <c r="D30" t="n">
-        <v>740</v>
+        <v>770</v>
       </c>
       <c r="E30" t="n">
-        <v>740</v>
+        <v>770</v>
       </c>
       <c r="F30" t="n">
-        <v>92.8318</v>
+        <v>1018.0591</v>
       </c>
       <c r="G30" t="n">
-        <v>767.8666666666667</v>
+        <v>54304.09921007002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J30" t="n">
-        <v>336</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-22.30215827338129</v>
-      </c>
-      <c r="L30" t="n">
-        <v>748.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>757.35</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1804,49 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="C31" t="n">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="D31" t="n">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="E31" t="n">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="F31" t="n">
-        <v>10.05305039</v>
+        <v>600.0368</v>
       </c>
       <c r="G31" t="n">
-        <v>767.6166666666667</v>
+        <v>54304.09921007002</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J31" t="n">
-        <v>350</v>
-      </c>
-      <c r="K31" t="n">
-        <v>9.67741935483871</v>
-      </c>
-      <c r="L31" t="n">
-        <v>747.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>756.75</v>
-      </c>
-      <c r="N31" t="n">
-        <v>762.9333333333333</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1855,49 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>739</v>
+        <v>770</v>
       </c>
       <c r="C32" t="n">
-        <v>738</v>
+        <v>770</v>
       </c>
       <c r="D32" t="n">
-        <v>740</v>
+        <v>770</v>
       </c>
       <c r="E32" t="n">
-        <v>738</v>
+        <v>770</v>
       </c>
       <c r="F32" t="n">
-        <v>1400.1711</v>
+        <v>7001.6921</v>
       </c>
       <c r="G32" t="n">
-        <v>767.0833333333334</v>
+        <v>54304.09921007002</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-32</v>
-      </c>
-      <c r="J32" t="n">
-        <v>366</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-1.449275362318841</v>
-      </c>
-      <c r="L32" t="n">
-        <v>746.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>754.3</v>
-      </c>
-      <c r="N32" t="n">
-        <v>761.8666666666667</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1906,49 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>738</v>
+        <v>772</v>
       </c>
       <c r="C33" t="n">
-        <v>738</v>
+        <v>771</v>
       </c>
       <c r="D33" t="n">
-        <v>738</v>
+        <v>787</v>
       </c>
       <c r="E33" t="n">
-        <v>735</v>
+        <v>771</v>
       </c>
       <c r="F33" t="n">
-        <v>3626.13950691</v>
+        <v>352.6194526</v>
       </c>
       <c r="G33" t="n">
-        <v>766.05</v>
+        <v>54656.71866267002</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-32</v>
-      </c>
-      <c r="J33" t="n">
-        <v>366</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-1.449275362318841</v>
-      </c>
-      <c r="L33" t="n">
-        <v>746.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>752.05</v>
-      </c>
-      <c r="N33" t="n">
-        <v>760.7666666666667</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1957,49 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>731</v>
+        <v>771</v>
       </c>
       <c r="C34" t="n">
-        <v>721</v>
+        <v>778</v>
       </c>
       <c r="D34" t="n">
-        <v>731</v>
+        <v>778</v>
       </c>
       <c r="E34" t="n">
-        <v>721</v>
+        <v>771</v>
       </c>
       <c r="F34" t="n">
-        <v>1738.1281</v>
+        <v>588.405</v>
       </c>
       <c r="G34" t="n">
-        <v>764.6166666666667</v>
+        <v>55245.12366267002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-49</v>
-      </c>
-      <c r="J34" t="n">
-        <v>383</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-41.46341463414634</v>
-      </c>
-      <c r="L34" t="n">
-        <v>744.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>749.35</v>
-      </c>
-      <c r="N34" t="n">
-        <v>758.8666666666667</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,49 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>723</v>
+        <v>781</v>
       </c>
       <c r="C35" t="n">
-        <v>722</v>
+        <v>781</v>
       </c>
       <c r="D35" t="n">
-        <v>723</v>
+        <v>782</v>
       </c>
       <c r="E35" t="n">
-        <v>721</v>
+        <v>781</v>
       </c>
       <c r="F35" t="n">
-        <v>3993.8979</v>
+        <v>2034.6376</v>
       </c>
       <c r="G35" t="n">
-        <v>763.2166666666667</v>
+        <v>57279.76126267002</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-48</v>
-      </c>
-      <c r="J35" t="n">
-        <v>384</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-25.25252525252525</v>
-      </c>
-      <c r="L35" t="n">
-        <v>739.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>746.7</v>
-      </c>
-      <c r="N35" t="n">
-        <v>756.9</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2059,49 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="C36" t="n">
-        <v>716</v>
+        <v>769</v>
       </c>
       <c r="D36" t="n">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="E36" t="n">
-        <v>716</v>
+        <v>769</v>
       </c>
       <c r="F36" t="n">
-        <v>11826.3205</v>
+        <v>688.6622</v>
       </c>
       <c r="G36" t="n">
-        <v>762</v>
+        <v>56591.09906267002</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-54</v>
-      </c>
-      <c r="J36" t="n">
-        <v>390</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-22.10526315789474</v>
-      </c>
-      <c r="L36" t="n">
-        <v>736.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>744.5</v>
-      </c>
-      <c r="N36" t="n">
-        <v>755.1333333333333</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,49 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>733</v>
+        <v>769</v>
       </c>
       <c r="C37" t="n">
-        <v>733</v>
+        <v>766</v>
       </c>
       <c r="D37" t="n">
-        <v>733</v>
+        <v>769</v>
       </c>
       <c r="E37" t="n">
-        <v>733</v>
+        <v>766</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>1613.3301</v>
       </c>
       <c r="G37" t="n">
-        <v>761.3</v>
+        <v>54977.76896267002</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-37</v>
-      </c>
-      <c r="J37" t="n">
-        <v>407</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-7.407407407407407</v>
-      </c>
-      <c r="L37" t="n">
-        <v>736.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>743.55</v>
-      </c>
-      <c r="N37" t="n">
-        <v>754.0333333333333</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2161,49 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>731</v>
+        <v>774</v>
       </c>
       <c r="C38" t="n">
-        <v>731</v>
+        <v>789</v>
       </c>
       <c r="D38" t="n">
-        <v>731</v>
+        <v>789</v>
       </c>
       <c r="E38" t="n">
-        <v>731</v>
+        <v>774</v>
       </c>
       <c r="F38" t="n">
-        <v>201.1929</v>
+        <v>2078.77382623</v>
       </c>
       <c r="G38" t="n">
-        <v>760.5666666666667</v>
+        <v>57056.54278890002</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-39</v>
-      </c>
-      <c r="J38" t="n">
-        <v>409</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-30.43478260869566</v>
-      </c>
-      <c r="L38" t="n">
-        <v>735.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>742.1</v>
-      </c>
-      <c r="N38" t="n">
-        <v>752.1</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2212,49 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>737</v>
+        <v>788</v>
       </c>
       <c r="C39" t="n">
-        <v>738</v>
+        <v>789</v>
       </c>
       <c r="D39" t="n">
-        <v>738</v>
+        <v>789</v>
       </c>
       <c r="E39" t="n">
-        <v>737</v>
+        <v>788</v>
       </c>
       <c r="F39" t="n">
-        <v>530.7121</v>
+        <v>218.60291508</v>
       </c>
       <c r="G39" t="n">
-        <v>760.0666666666667</v>
+        <v>57056.54278890002</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-32</v>
-      </c>
-      <c r="J39" t="n">
-        <v>416</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="L39" t="n">
-        <v>733.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>742.25</v>
-      </c>
-      <c r="N39" t="n">
-        <v>750.4</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2263,49 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>738</v>
+        <v>774</v>
       </c>
       <c r="C40" t="n">
-        <v>738</v>
+        <v>774</v>
       </c>
       <c r="D40" t="n">
-        <v>738</v>
+        <v>774</v>
       </c>
       <c r="E40" t="n">
-        <v>738</v>
+        <v>774</v>
       </c>
       <c r="F40" t="n">
-        <v>107.2553</v>
+        <v>25</v>
       </c>
       <c r="G40" t="n">
-        <v>759.55</v>
+        <v>57031.54278890002</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-32</v>
-      </c>
-      <c r="J40" t="n">
-        <v>416</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-24.24242424242424</v>
-      </c>
-      <c r="L40" t="n">
-        <v>732.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>740.9</v>
-      </c>
-      <c r="N40" t="n">
-        <v>749.2</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2314,49 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>720</v>
+        <v>766</v>
       </c>
       <c r="C41" t="n">
-        <v>719</v>
+        <v>766</v>
       </c>
       <c r="D41" t="n">
-        <v>720</v>
+        <v>766</v>
       </c>
       <c r="E41" t="n">
-        <v>719</v>
+        <v>766</v>
       </c>
       <c r="F41" t="n">
-        <v>88.9742</v>
+        <v>688.7115</v>
       </c>
       <c r="G41" t="n">
-        <v>759.3166666666667</v>
+        <v>56342.83128890002</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-51</v>
-      </c>
-      <c r="J41" t="n">
-        <v>435</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-27.53623188405797</v>
-      </c>
-      <c r="L41" t="n">
-        <v>729.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>738.3</v>
-      </c>
-      <c r="N41" t="n">
-        <v>747.6333333333333</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2365,49 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>720</v>
+        <v>787</v>
       </c>
       <c r="C42" t="n">
-        <v>713</v>
+        <v>787</v>
       </c>
       <c r="D42" t="n">
-        <v>720</v>
+        <v>787</v>
       </c>
       <c r="E42" t="n">
-        <v>713</v>
+        <v>787</v>
       </c>
       <c r="F42" t="n">
-        <v>10497.4652</v>
+        <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>758.55</v>
+        <v>56352.83128890002</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-57</v>
-      </c>
-      <c r="J42" t="n">
-        <v>441</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L42" t="n">
-        <v>726.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>736.85</v>
-      </c>
-      <c r="N42" t="n">
-        <v>745.1666666666666</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2416,49 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>710</v>
+        <v>773</v>
       </c>
       <c r="C43" t="n">
-        <v>710</v>
+        <v>783</v>
       </c>
       <c r="D43" t="n">
-        <v>710</v>
+        <v>783</v>
       </c>
       <c r="E43" t="n">
-        <v>710</v>
+        <v>773</v>
       </c>
       <c r="F43" t="n">
-        <v>1731.4911</v>
+        <v>4273.9251</v>
       </c>
       <c r="G43" t="n">
-        <v>757.6</v>
+        <v>52078.90618890002</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-60</v>
-      </c>
-      <c r="J43" t="n">
-        <v>444</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-18.0327868852459</v>
-      </c>
-      <c r="L43" t="n">
-        <v>724.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>735.35</v>
-      </c>
-      <c r="N43" t="n">
-        <v>742.7333333333333</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2467,49 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>710</v>
+        <v>775</v>
       </c>
       <c r="C44" t="n">
-        <v>710</v>
+        <v>775</v>
       </c>
       <c r="D44" t="n">
-        <v>710</v>
+        <v>777</v>
       </c>
       <c r="E44" t="n">
-        <v>710</v>
+        <v>775</v>
       </c>
       <c r="F44" t="n">
-        <v>763.1187</v>
+        <v>3691.02913176</v>
       </c>
       <c r="G44" t="n">
-        <v>756.65</v>
+        <v>48387.87705714002</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-60</v>
-      </c>
-      <c r="J44" t="n">
-        <v>444</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L44" t="n">
-        <v>723</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>733.85</v>
-      </c>
-      <c r="N44" t="n">
-        <v>740.5666666666667</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2518,49 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>713</v>
+        <v>777</v>
       </c>
       <c r="C45" t="n">
-        <v>711</v>
+        <v>775</v>
       </c>
       <c r="D45" t="n">
-        <v>713</v>
+        <v>777</v>
       </c>
       <c r="E45" t="n">
-        <v>711</v>
+        <v>775</v>
       </c>
       <c r="F45" t="n">
-        <v>759.615</v>
+        <v>483.04308387</v>
       </c>
       <c r="G45" t="n">
-        <v>755.7166666666667</v>
+        <v>48387.87705714002</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-59</v>
-      </c>
-      <c r="J45" t="n">
-        <v>445</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L45" t="n">
-        <v>721.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>730.8</v>
-      </c>
-      <c r="N45" t="n">
-        <v>738.4333333333333</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2569,49 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>710</v>
+        <v>766</v>
       </c>
       <c r="C46" t="n">
-        <v>704</v>
+        <v>760</v>
       </c>
       <c r="D46" t="n">
-        <v>710</v>
+        <v>766</v>
       </c>
       <c r="E46" t="n">
-        <v>704</v>
+        <v>760</v>
       </c>
       <c r="F46" t="n">
-        <v>1442.5984</v>
+        <v>1497.3282</v>
       </c>
       <c r="G46" t="n">
-        <v>754.6666666666666</v>
+        <v>46890.54885714002</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-66</v>
-      </c>
-      <c r="J46" t="n">
-        <v>452</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-64.44444444444444</v>
-      </c>
-      <c r="L46" t="n">
-        <v>720.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>728.65</v>
-      </c>
-      <c r="N46" t="n">
-        <v>736.5666666666667</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2620,49 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>704</v>
+        <v>775</v>
       </c>
       <c r="C47" t="n">
-        <v>705</v>
+        <v>752</v>
       </c>
       <c r="D47" t="n">
-        <v>705</v>
+        <v>775</v>
       </c>
       <c r="E47" t="n">
-        <v>701</v>
+        <v>752</v>
       </c>
       <c r="F47" t="n">
-        <v>7707.244</v>
+        <v>7010</v>
       </c>
       <c r="G47" t="n">
-        <v>753.6333333333333</v>
+        <v>39880.54885714002</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-65</v>
-      </c>
-      <c r="J47" t="n">
-        <v>453</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-59.09090909090909</v>
-      </c>
-      <c r="L47" t="n">
-        <v>717.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>727.05</v>
-      </c>
-      <c r="N47" t="n">
-        <v>735</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,49 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>705</v>
+        <v>752</v>
       </c>
       <c r="C48" t="n">
-        <v>705</v>
+        <v>760</v>
       </c>
       <c r="D48" t="n">
-        <v>705</v>
+        <v>760</v>
       </c>
       <c r="E48" t="n">
-        <v>705</v>
+        <v>752</v>
       </c>
       <c r="F48" t="n">
-        <v>958.0863000000001</v>
+        <v>320.7258</v>
       </c>
       <c r="G48" t="n">
-        <v>752.5</v>
+        <v>40201.27465714002</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-65</v>
-      </c>
-      <c r="J48" t="n">
-        <v>453</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-89.18918918918919</v>
-      </c>
-      <c r="L48" t="n">
-        <v>715.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>725.25</v>
-      </c>
-      <c r="N48" t="n">
-        <v>733.1666666666666</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2722,49 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>708</v>
+        <v>762</v>
       </c>
       <c r="C49" t="n">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="D49" t="n">
-        <v>723</v>
+        <v>762</v>
       </c>
       <c r="E49" t="n">
-        <v>705</v>
+        <v>735</v>
       </c>
       <c r="F49" t="n">
-        <v>6046.1439</v>
+        <v>2667.56006302</v>
       </c>
       <c r="G49" t="n">
-        <v>751.6666666666666</v>
+        <v>37533.71459412002</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-47</v>
-      </c>
-      <c r="J49" t="n">
-        <v>471</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L49" t="n">
-        <v>713.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>723.45</v>
-      </c>
-      <c r="N49" t="n">
-        <v>732.7666666666667</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2773,49 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>711</v>
+        <v>728</v>
       </c>
       <c r="C50" t="n">
-        <v>712</v>
+        <v>765</v>
       </c>
       <c r="D50" t="n">
-        <v>712</v>
+        <v>765</v>
       </c>
       <c r="E50" t="n">
-        <v>711</v>
+        <v>728</v>
       </c>
       <c r="F50" t="n">
-        <v>1192.0575</v>
+        <v>261.6803</v>
       </c>
       <c r="G50" t="n">
-        <v>750.5</v>
+        <v>37795.39489412002</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-58</v>
-      </c>
-      <c r="J50" t="n">
-        <v>482</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-14.8936170212766</v>
-      </c>
-      <c r="L50" t="n">
-        <v>711.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>722.05</v>
-      </c>
-      <c r="N50" t="n">
-        <v>731</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2824,49 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>711</v>
+        <v>745</v>
       </c>
       <c r="C51" t="n">
-        <v>713</v>
+        <v>771</v>
       </c>
       <c r="D51" t="n">
-        <v>713</v>
+        <v>771</v>
       </c>
       <c r="E51" t="n">
-        <v>711</v>
+        <v>745</v>
       </c>
       <c r="F51" t="n">
-        <v>3389.0143</v>
+        <v>195.85841193</v>
       </c>
       <c r="G51" t="n">
-        <v>749.4833333333333</v>
+        <v>37991.25330605002</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-57</v>
-      </c>
-      <c r="J51" t="n">
-        <v>483</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>710.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>720</v>
-      </c>
-      <c r="N51" t="n">
-        <v>729.0666666666667</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2875,49 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>712</v>
+        <v>742</v>
       </c>
       <c r="C52" t="n">
-        <v>700</v>
+        <v>742</v>
       </c>
       <c r="D52" t="n">
-        <v>712</v>
+        <v>742</v>
       </c>
       <c r="E52" t="n">
-        <v>700</v>
+        <v>742</v>
       </c>
       <c r="F52" t="n">
-        <v>846.846</v>
+        <v>11.1607</v>
       </c>
       <c r="G52" t="n">
-        <v>748.2666666666667</v>
+        <v>37980.09260605002</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-70</v>
-      </c>
-      <c r="J52" t="n">
-        <v>496</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-19.23076923076923</v>
-      </c>
-      <c r="L52" t="n">
-        <v>709.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>718.1</v>
-      </c>
-      <c r="N52" t="n">
-        <v>727.6666666666666</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2926,49 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>712</v>
+        <v>740</v>
       </c>
       <c r="C53" t="n">
-        <v>712</v>
+        <v>740</v>
       </c>
       <c r="D53" t="n">
-        <v>712</v>
+        <v>740</v>
       </c>
       <c r="E53" t="n">
-        <v>712</v>
+        <v>740</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>78.17019999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>747.4333333333333</v>
+        <v>37901.92240605002</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-58</v>
-      </c>
-      <c r="J53" t="n">
-        <v>508</v>
-      </c>
-      <c r="K53" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="L53" t="n">
-        <v>709.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>716.8</v>
-      </c>
-      <c r="N53" t="n">
-        <v>726.7333333333333</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2977,49 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>705</v>
+        <v>740</v>
       </c>
       <c r="C54" t="n">
-        <v>711</v>
+        <v>740</v>
       </c>
       <c r="D54" t="n">
-        <v>711</v>
+        <v>740</v>
       </c>
       <c r="E54" t="n">
-        <v>705</v>
+        <v>740</v>
       </c>
       <c r="F54" t="n">
-        <v>413.7934</v>
+        <v>500</v>
       </c>
       <c r="G54" t="n">
-        <v>746.55</v>
+        <v>37901.92240605002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-59</v>
-      </c>
-      <c r="J54" t="n">
-        <v>509</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>709.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>716.3</v>
-      </c>
-      <c r="N54" t="n">
-        <v>725.7666666666667</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3028,49 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>711</v>
+        <v>743</v>
       </c>
       <c r="C55" t="n">
-        <v>704</v>
+        <v>772</v>
       </c>
       <c r="D55" t="n">
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="E55" t="n">
-        <v>704</v>
+        <v>743</v>
       </c>
       <c r="F55" t="n">
-        <v>648.3526000000001</v>
+        <v>1972.14255388</v>
       </c>
       <c r="G55" t="n">
-        <v>745.5</v>
+        <v>39874.06495993002</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-66</v>
-      </c>
-      <c r="J55" t="n">
-        <v>516</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>708.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>715.4</v>
-      </c>
-      <c r="N55" t="n">
-        <v>723.5</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3079,49 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>712</v>
+        <v>749</v>
       </c>
       <c r="C56" t="n">
-        <v>713</v>
+        <v>747</v>
       </c>
       <c r="D56" t="n">
-        <v>713</v>
+        <v>749</v>
       </c>
       <c r="E56" t="n">
-        <v>712</v>
+        <v>747</v>
       </c>
       <c r="F56" t="n">
-        <v>561.6813</v>
+        <v>129.8684</v>
       </c>
       <c r="G56" t="n">
-        <v>744.5833333333334</v>
+        <v>39744.19655993002</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-57</v>
-      </c>
-      <c r="J56" t="n">
-        <v>525</v>
-      </c>
-      <c r="K56" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L56" t="n">
-        <v>709.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>715.25</v>
-      </c>
-      <c r="N56" t="n">
-        <v>722.3666666666667</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3130,49 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>715</v>
+        <v>737</v>
       </c>
       <c r="C57" t="n">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="D57" t="n">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="E57" t="n">
-        <v>714</v>
+        <v>737</v>
       </c>
       <c r="F57" t="n">
-        <v>2848.0926</v>
+        <v>29</v>
       </c>
       <c r="G57" t="n">
-        <v>743.9666666666667</v>
+        <v>39715.19655993002</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-38</v>
-      </c>
-      <c r="J57" t="n">
-        <v>544</v>
-      </c>
-      <c r="K57" t="n">
-        <v>29.67032967032967</v>
-      </c>
-      <c r="L57" t="n">
-        <v>712.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>715.2</v>
-      </c>
-      <c r="N57" t="n">
-        <v>722.2</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3181,49 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>710</v>
+        <v>740</v>
       </c>
       <c r="C58" t="n">
-        <v>710</v>
+        <v>741</v>
       </c>
       <c r="D58" t="n">
-        <v>710</v>
+        <v>766</v>
       </c>
       <c r="E58" t="n">
-        <v>710</v>
+        <v>740</v>
       </c>
       <c r="F58" t="n">
-        <v>106.8549</v>
+        <v>1105.45399843</v>
       </c>
       <c r="G58" t="n">
-        <v>742.9833333333333</v>
+        <v>40820.65055836002</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-60</v>
-      </c>
-      <c r="J58" t="n">
-        <v>566</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-13.68421052631579</v>
-      </c>
-      <c r="L58" t="n">
-        <v>713</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>714.15</v>
-      </c>
-      <c r="N58" t="n">
-        <v>721.1666666666666</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3232,49 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>709</v>
+        <v>759</v>
       </c>
       <c r="C59" t="n">
-        <v>710</v>
+        <v>759</v>
       </c>
       <c r="D59" t="n">
-        <v>710</v>
+        <v>759</v>
       </c>
       <c r="E59" t="n">
-        <v>709</v>
+        <v>759</v>
       </c>
       <c r="F59" t="n">
-        <v>3048.7594</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>742</v>
+        <v>40830.65055836002</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-60</v>
-      </c>
-      <c r="J59" t="n">
-        <v>566</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-2.380952380952381</v>
-      </c>
-      <c r="L59" t="n">
-        <v>711.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>712.75</v>
-      </c>
-      <c r="N59" t="n">
-        <v>719.5333333333333</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,49 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>710</v>
+        <v>740</v>
       </c>
       <c r="C60" t="n">
-        <v>710</v>
+        <v>740</v>
       </c>
       <c r="D60" t="n">
-        <v>711</v>
+        <v>740</v>
       </c>
       <c r="E60" t="n">
-        <v>710</v>
+        <v>740</v>
       </c>
       <c r="F60" t="n">
-        <v>3087.7414</v>
+        <v>92.8318</v>
       </c>
       <c r="G60" t="n">
-        <v>741</v>
+        <v>40737.81875836002</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-60</v>
-      </c>
-      <c r="J60" t="n">
-        <v>566</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-3.614457831325301</v>
-      </c>
-      <c r="L60" t="n">
-        <v>711.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>711.35</v>
-      </c>
-      <c r="N60" t="n">
-        <v>718.5333333333333</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,49 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>711</v>
+        <v>754</v>
       </c>
       <c r="C61" t="n">
-        <v>711</v>
+        <v>754</v>
       </c>
       <c r="D61" t="n">
-        <v>711</v>
+        <v>754</v>
       </c>
       <c r="E61" t="n">
-        <v>711</v>
+        <v>754</v>
       </c>
       <c r="F61" t="n">
-        <v>77.9747</v>
+        <v>10.05305039</v>
       </c>
       <c r="G61" t="n">
-        <v>740.0166666666667</v>
+        <v>40747.87180875002</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-59</v>
-      </c>
-      <c r="J61" t="n">
-        <v>567</v>
-      </c>
-      <c r="K61" t="n">
-        <v>15.49295774647887</v>
-      </c>
-      <c r="L61" t="n">
-        <v>711.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>710.95</v>
-      </c>
-      <c r="N61" t="n">
-        <v>717.1</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3385,49 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>723</v>
+        <v>739</v>
       </c>
       <c r="C62" t="n">
-        <v>723</v>
+        <v>738</v>
       </c>
       <c r="D62" t="n">
-        <v>723</v>
+        <v>740</v>
       </c>
       <c r="E62" t="n">
-        <v>723</v>
+        <v>738</v>
       </c>
       <c r="F62" t="n">
-        <v>631.9930000000001</v>
+        <v>1400.1711</v>
       </c>
       <c r="G62" t="n">
-        <v>739.2333333333333</v>
+        <v>39347.70070875002</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-47</v>
-      </c>
-      <c r="J62" t="n">
-        <v>579</v>
-      </c>
-      <c r="K62" t="n">
-        <v>15.49295774647887</v>
-      </c>
-      <c r="L62" t="n">
-        <v>713.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>711.45</v>
-      </c>
-      <c r="N62" t="n">
-        <v>716.6</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3436,49 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>724</v>
+        <v>738</v>
       </c>
       <c r="C63" t="n">
-        <v>724</v>
+        <v>738</v>
       </c>
       <c r="D63" t="n">
-        <v>724</v>
+        <v>738</v>
       </c>
       <c r="E63" t="n">
-        <v>724</v>
+        <v>735</v>
       </c>
       <c r="F63" t="n">
-        <v>47.6183</v>
+        <v>3626.13950691</v>
       </c>
       <c r="G63" t="n">
-        <v>738.45</v>
+        <v>39347.70070875002</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-46</v>
-      </c>
-      <c r="J63" t="n">
-        <v>580</v>
-      </c>
-      <c r="K63" t="n">
-        <v>18.30985915492958</v>
-      </c>
-      <c r="L63" t="n">
-        <v>714.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>712.15</v>
-      </c>
-      <c r="N63" t="n">
-        <v>716.1333333333333</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3487,49 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>712</v>
+        <v>731</v>
       </c>
       <c r="C64" t="n">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="D64" t="n">
-        <v>712</v>
+        <v>731</v>
       </c>
       <c r="E64" t="n">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="F64" t="n">
-        <v>2204.2916</v>
+        <v>1738.1281</v>
       </c>
       <c r="G64" t="n">
-        <v>737.3333333333334</v>
+        <v>37609.57260875002</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-59</v>
-      </c>
-      <c r="J64" t="n">
-        <v>593</v>
-      </c>
-      <c r="K64" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L64" t="n">
-        <v>714.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>712.2</v>
-      </c>
-      <c r="N64" t="n">
-        <v>715.8</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,49 +2638,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="C65" t="n">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="D65" t="n">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="E65" t="n">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="F65" t="n">
-        <v>2045.7984</v>
+        <v>3993.8979</v>
       </c>
       <c r="G65" t="n">
-        <v>736.15</v>
+        <v>41603.47050875002</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>594</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-4.347826086956522</v>
-      </c>
-      <c r="L65" t="n">
-        <v>715.4</v>
+        <v>721</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>712.15</v>
-      </c>
-      <c r="N65" t="n">
-        <v>715.4</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3589,49 +2679,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="C66" t="n">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="D66" t="n">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="E66" t="n">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="F66" t="n">
-        <v>321.3601</v>
+        <v>11826.3205</v>
       </c>
       <c r="G66" t="n">
-        <v>735.1666666666666</v>
+        <v>29777.15000875002</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>594</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-44</v>
-      </c>
-      <c r="L66" t="n">
-        <v>715.1</v>
+        <v>722</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>712.45</v>
-      </c>
-      <c r="N66" t="n">
-        <v>715.2</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3640,49 +2720,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="C67" t="n">
-        <v>710</v>
+        <v>733</v>
       </c>
       <c r="D67" t="n">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="E67" t="n">
-        <v>710</v>
+        <v>733</v>
       </c>
       <c r="F67" t="n">
-        <v>1675.7407</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>734.2333333333333</v>
+        <v>29778.15000875002</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>594</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>712.9</v>
+        <v>716</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>712.7</v>
-      </c>
-      <c r="N67" t="n">
-        <v>714.4333333333333</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3691,49 +2761,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>710</v>
+        <v>731</v>
       </c>
       <c r="C68" t="n">
-        <v>710</v>
+        <v>731</v>
       </c>
       <c r="D68" t="n">
-        <v>710</v>
+        <v>731</v>
       </c>
       <c r="E68" t="n">
-        <v>710</v>
+        <v>731</v>
       </c>
       <c r="F68" t="n">
-        <v>11.7907</v>
+        <v>201.1929</v>
       </c>
       <c r="G68" t="n">
-        <v>732.9166666666666</v>
+        <v>29576.95710875002</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>594</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>712.9</v>
+        <v>733</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>712.95</v>
-      </c>
-      <c r="N68" t="n">
-        <v>713.7333333333333</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3742,49 +2802,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>710</v>
+        <v>737</v>
       </c>
       <c r="C69" t="n">
-        <v>710</v>
+        <v>738</v>
       </c>
       <c r="D69" t="n">
-        <v>710</v>
+        <v>738</v>
       </c>
       <c r="E69" t="n">
-        <v>710</v>
+        <v>737</v>
       </c>
       <c r="F69" t="n">
-        <v>990.045</v>
+        <v>530.7121</v>
       </c>
       <c r="G69" t="n">
-        <v>731.6</v>
+        <v>30107.66920875002</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-60</v>
-      </c>
-      <c r="J69" t="n">
-        <v>594</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>712.9</v>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>712.3</v>
-      </c>
-      <c r="N69" t="n">
-        <v>712.8</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,49 +2841,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>710</v>
+        <v>738</v>
       </c>
       <c r="C70" t="n">
-        <v>688</v>
+        <v>738</v>
       </c>
       <c r="D70" t="n">
-        <v>710</v>
+        <v>738</v>
       </c>
       <c r="E70" t="n">
-        <v>688</v>
+        <v>738</v>
       </c>
       <c r="F70" t="n">
-        <v>3104.0539</v>
+        <v>107.2553</v>
       </c>
       <c r="G70" t="n">
-        <v>730.1666666666666</v>
+        <v>30107.66920875002</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>-82</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>616</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-46.93877551020408</v>
-      </c>
-      <c r="L70" t="n">
-        <v>710.7</v>
+        <v>738</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>711.1</v>
-      </c>
-      <c r="N70" t="n">
-        <v>711.1333333333333</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3844,49 +2882,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="C71" t="n">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="D71" t="n">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="E71" t="n">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>88.9742</v>
       </c>
       <c r="G71" t="n">
-        <v>729.2666666666667</v>
+        <v>30018.69500875002</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-58</v>
-      </c>
-      <c r="J71" t="n">
-        <v>640</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-18.0327868852459</v>
-      </c>
-      <c r="L71" t="n">
-        <v>710.8</v>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>711.05</v>
-      </c>
-      <c r="N71" t="n">
-        <v>710.9</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3895,49 +2921,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="C72" t="n">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D72" t="n">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="E72" t="n">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F72" t="n">
-        <v>1191.1947</v>
+        <v>10497.4652</v>
       </c>
       <c r="G72" t="n">
-        <v>728.0166666666667</v>
+        <v>19521.22980875002</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-58</v>
-      </c>
-      <c r="J72" t="n">
-        <v>640</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L72" t="n">
-        <v>709.7</v>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>711.65</v>
-      </c>
-      <c r="N72" t="n">
-        <v>710.8666666666667</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3946,49 +2960,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C73" t="n">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D73" t="n">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E73" t="n">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F73" t="n">
-        <v>497.4796</v>
+        <v>1731.4911</v>
       </c>
       <c r="G73" t="n">
-        <v>726.85</v>
+        <v>17789.73870875002</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-57</v>
-      </c>
-      <c r="J73" t="n">
-        <v>641</v>
-      </c>
-      <c r="K73" t="n">
-        <v>4.166666666666666</v>
-      </c>
-      <c r="L73" t="n">
-        <v>708.6</v>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>711.7</v>
-      </c>
-      <c r="N73" t="n">
-        <v>710.9666666666667</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3997,49 +2999,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C74" t="n">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D74" t="n">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E74" t="n">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F74" t="n">
-        <v>1524.5273</v>
+        <v>763.1187</v>
       </c>
       <c r="G74" t="n">
-        <v>725.8</v>
+        <v>17789.73870875002</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-58</v>
-      </c>
-      <c r="J74" t="n">
-        <v>642</v>
-      </c>
-      <c r="K74" t="n">
-        <v>4.166666666666666</v>
-      </c>
-      <c r="L74" t="n">
-        <v>708.7</v>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>711.75</v>
-      </c>
-      <c r="N74" t="n">
-        <v>711.0333333333333</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,49 +3038,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="C75" t="n">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="D75" t="n">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="E75" t="n">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="F75" t="n">
-        <v>613.3971</v>
+        <v>759.615</v>
       </c>
       <c r="G75" t="n">
-        <v>724.55</v>
+        <v>18549.35370875002</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-70</v>
-      </c>
-      <c r="J75" t="n">
-        <v>654</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L75" t="n">
-        <v>707.7</v>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>711.55</v>
-      </c>
-      <c r="N75" t="n">
-        <v>710.6666666666666</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4099,49 +3077,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="C76" t="n">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D76" t="n">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="E76" t="n">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F76" t="n">
-        <v>26.9959</v>
+        <v>1442.5984</v>
       </c>
       <c r="G76" t="n">
-        <v>723.6</v>
+        <v>17106.75530875002</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>-67</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>657</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L76" t="n">
-        <v>707</v>
+        <v>711</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>711.05</v>
-      </c>
-      <c r="N76" t="n">
-        <v>710.6333333333333</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4150,49 +3118,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>704</v>
+      </c>
+      <c r="C77" t="n">
+        <v>705</v>
+      </c>
+      <c r="D77" t="n">
+        <v>705</v>
+      </c>
+      <c r="E77" t="n">
         <v>701</v>
       </c>
-      <c r="C77" t="n">
-        <v>697</v>
-      </c>
-      <c r="D77" t="n">
-        <v>701</v>
-      </c>
-      <c r="E77" t="n">
-        <v>697</v>
-      </c>
       <c r="F77" t="n">
-        <v>2475.8788</v>
+        <v>7707.244</v>
       </c>
       <c r="G77" t="n">
-        <v>722.6833333333333</v>
+        <v>24813.99930875002</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>663</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-18.84057971014493</v>
-      </c>
-      <c r="L77" t="n">
-        <v>705.7</v>
+        <v>704</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>709.3</v>
-      </c>
-      <c r="N77" t="n">
-        <v>710.3666666666667</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4201,49 +3159,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="C78" t="n">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="D78" t="n">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="E78" t="n">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="F78" t="n">
-        <v>115.1864</v>
+        <v>958.0863000000001</v>
       </c>
       <c r="G78" t="n">
-        <v>721.6833333333333</v>
+        <v>24813.99930875002</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>666</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-13.88888888888889</v>
-      </c>
-      <c r="L78" t="n">
-        <v>704.7</v>
+        <v>705</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>708.8</v>
-      </c>
-      <c r="N78" t="n">
-        <v>710.2</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4252,49 +3200,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="C79" t="n">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="D79" t="n">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="E79" t="n">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>6046.1439</v>
       </c>
       <c r="G79" t="n">
-        <v>721.3166666666667</v>
+        <v>30860.14320875002</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-57</v>
-      </c>
-      <c r="J79" t="n">
-        <v>679</v>
-      </c>
-      <c r="K79" t="n">
-        <v>39.68253968253968</v>
-      </c>
-      <c r="L79" t="n">
-        <v>705</v>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>708.95</v>
-      </c>
-      <c r="N79" t="n">
-        <v>709.8666666666667</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4306,46 +3242,36 @@
         <v>711</v>
       </c>
       <c r="C80" t="n">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D80" t="n">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E80" t="n">
         <v>711</v>
       </c>
       <c r="F80" t="n">
-        <v>81</v>
+        <v>1192.0575</v>
       </c>
       <c r="G80" t="n">
-        <v>720.4166666666666</v>
+        <v>29668.08570875002</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>-59</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>681</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-2.439024390243902</v>
-      </c>
-      <c r="L80" t="n">
-        <v>707.3</v>
+        <v>723</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>709</v>
-      </c>
-      <c r="N80" t="n">
-        <v>709.8333333333334</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4357,46 +3283,36 @@
         <v>711</v>
       </c>
       <c r="C81" t="n">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D81" t="n">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="E81" t="n">
         <v>711</v>
       </c>
       <c r="F81" t="n">
-        <v>0.462</v>
+        <v>3389.0143</v>
       </c>
       <c r="G81" t="n">
-        <v>719.4166666666666</v>
+        <v>33057.10000875002</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>-59</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>681</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-2.439024390243902</v>
-      </c>
-      <c r="L81" t="n">
-        <v>707.2</v>
+        <v>712</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>709</v>
-      </c>
-      <c r="N81" t="n">
-        <v>709.7666666666667</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4405,49 +3321,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="C82" t="n">
-        <v>719</v>
+        <v>700</v>
       </c>
       <c r="D82" t="n">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="E82" t="n">
-        <v>719</v>
+        <v>700</v>
       </c>
       <c r="F82" t="n">
-        <v>1.0268</v>
+        <v>846.846</v>
       </c>
       <c r="G82" t="n">
-        <v>719.0333333333333</v>
+        <v>32210.25400875002</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>-51</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>689</v>
-      </c>
-      <c r="K82" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L82" t="n">
-        <v>707.9</v>
+        <v>713</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>708.8</v>
-      </c>
-      <c r="N82" t="n">
-        <v>710.4</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,49 +3362,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="C83" t="n">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="D83" t="n">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="E83" t="n">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="F83" t="n">
-        <v>573.2474999999999</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>718.7166666666667</v>
+        <v>32211.25400875002</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>-49</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>691</v>
-      </c>
-      <c r="K83" t="n">
-        <v>18.36734693877551</v>
-      </c>
-      <c r="L83" t="n">
-        <v>708.7</v>
+        <v>700</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>708.65</v>
-      </c>
-      <c r="N83" t="n">
-        <v>710.7</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4507,7 +3403,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C84" t="n">
         <v>711</v>
@@ -4516,40 +3412,30 @@
         <v>711</v>
       </c>
       <c r="E84" t="n">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="F84" t="n">
-        <v>1.262</v>
+        <v>413.7934</v>
       </c>
       <c r="G84" t="n">
-        <v>718.2333333333333</v>
+        <v>31797.46060875002</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>-59</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>701</v>
-      </c>
-      <c r="K84" t="n">
-        <v>23.40425531914894</v>
-      </c>
-      <c r="L84" t="n">
-        <v>708.6</v>
+        <v>712</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>708.65</v>
-      </c>
-      <c r="N84" t="n">
-        <v>710.7</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4558,49 +3444,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="C85" t="n">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="D85" t="n">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="E85" t="n">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="F85" t="n">
-        <v>751.3378</v>
+        <v>648.3526000000001</v>
       </c>
       <c r="G85" t="n">
-        <v>717.0333333333333</v>
+        <v>31149.10800875002</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-70</v>
-      </c>
-      <c r="J85" t="n">
-        <v>712</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-5.454545454545454</v>
-      </c>
-      <c r="L85" t="n">
-        <v>708.6</v>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>708.15</v>
-      </c>
-      <c r="N85" t="n">
-        <v>710.5666666666667</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4609,49 +3483,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="C86" t="n">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="D86" t="n">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="E86" t="n">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="F86" t="n">
-        <v>97.4529</v>
+        <v>561.6813</v>
       </c>
       <c r="G86" t="n">
-        <v>716.2833333333333</v>
+        <v>31710.78930875002</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>-68</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>714</v>
-      </c>
-      <c r="K86" t="n">
-        <v>9.803921568627452</v>
-      </c>
-      <c r="L86" t="n">
-        <v>708.5</v>
+        <v>704</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>707.75</v>
-      </c>
-      <c r="N86" t="n">
-        <v>710.2</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4660,49 +3524,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>701</v>
+        <v>715</v>
       </c>
       <c r="C87" t="n">
-        <v>701</v>
+        <v>732</v>
       </c>
       <c r="D87" t="n">
-        <v>701</v>
+        <v>732</v>
       </c>
       <c r="E87" t="n">
-        <v>701</v>
+        <v>714</v>
       </c>
       <c r="F87" t="n">
-        <v>476.0128</v>
+        <v>2848.0926</v>
       </c>
       <c r="G87" t="n">
-        <v>715.6833333333333</v>
+        <v>34558.88190875002</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-69</v>
-      </c>
-      <c r="J87" t="n">
-        <v>715</v>
-      </c>
-      <c r="K87" t="n">
-        <v>2.040816326530612</v>
-      </c>
-      <c r="L87" t="n">
-        <v>708.9</v>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>707.3</v>
-      </c>
-      <c r="N87" t="n">
-        <v>709.1666666666666</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4711,49 +3563,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="C88" t="n">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="D88" t="n">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="E88" t="n">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="F88" t="n">
-        <v>783.6581</v>
+        <v>106.8549</v>
       </c>
       <c r="G88" t="n">
-        <v>715.0333333333333</v>
+        <v>34452.02700875002</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-68</v>
-      </c>
-      <c r="J88" t="n">
-        <v>716</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-29.72972972972973</v>
-      </c>
-      <c r="L88" t="n">
-        <v>709.1</v>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>706.9</v>
-      </c>
-      <c r="N88" t="n">
-        <v>708.9</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4762,49 +3602,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>709</v>
+      </c>
+      <c r="C89" t="n">
         <v>710</v>
       </c>
-      <c r="C89" t="n">
-        <v>711</v>
-      </c>
       <c r="D89" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E89" t="n">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F89" t="n">
-        <v>15</v>
+        <v>3048.7594</v>
       </c>
       <c r="G89" t="n">
-        <v>714.2333333333333</v>
+        <v>34452.02700875002</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>-59</v>
-      </c>
-      <c r="J89" t="n">
-        <v>725</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" t="n">
-        <v>708.9</v>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>706.95</v>
-      </c>
-      <c r="N89" t="n">
-        <v>708.9333333333333</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4813,49 +3641,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C90" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D90" t="n">
         <v>711</v>
       </c>
       <c r="E90" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F90" t="n">
-        <v>214.9857</v>
+        <v>3087.7414</v>
       </c>
       <c r="G90" t="n">
-        <v>713.75</v>
+        <v>34452.02700875002</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>-59</v>
-      </c>
-      <c r="J90" t="n">
-        <v>725</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" t="n">
-        <v>708.9</v>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>708.1</v>
-      </c>
-      <c r="N90" t="n">
-        <v>708.9666666666667</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4876,37 +3692,27 @@
         <v>711</v>
       </c>
       <c r="F91" t="n">
-        <v>9.975</v>
+        <v>77.9747</v>
       </c>
       <c r="G91" t="n">
-        <v>713.0333333333333</v>
+        <v>34530.00170875002</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>-59</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>725</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L91" t="n">
-        <v>708.9</v>
+        <v>710</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>708.05</v>
-      </c>
-      <c r="N91" t="n">
-        <v>708.9666666666667</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4915,49 +3721,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C92" t="n">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="D92" t="n">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="E92" t="n">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>631.9930000000001</v>
       </c>
       <c r="G92" t="n">
-        <v>712.7166666666667</v>
+        <v>35161.99470875003</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-51</v>
-      </c>
-      <c r="J92" t="n">
-        <v>733</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-4.761904761904762</v>
-      </c>
-      <c r="L92" t="n">
-        <v>708.9</v>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>708.4</v>
-      </c>
-      <c r="N92" t="n">
-        <v>708.8333333333334</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4966,49 +3760,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="C93" t="n">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="D93" t="n">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="E93" t="n">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="F93" t="n">
-        <v>200.6588</v>
+        <v>47.6183</v>
       </c>
       <c r="G93" t="n">
-        <v>712.4</v>
+        <v>35209.61300875003</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-51</v>
-      </c>
-      <c r="J93" t="n">
-        <v>733</v>
-      </c>
-      <c r="K93" t="n">
-        <v>25</v>
-      </c>
-      <c r="L93" t="n">
-        <v>708.7</v>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>708.7</v>
-      </c>
-      <c r="N93" t="n">
-        <v>708.6666666666666</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5017,49 +3799,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="C94" t="n">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="D94" t="n">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="E94" t="n">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="F94" t="n">
-        <v>752.6999</v>
+        <v>2204.2916</v>
       </c>
       <c r="G94" t="n">
-        <v>712.3833333333333</v>
+        <v>33005.32140875003</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J94" t="n">
-        <v>734</v>
-      </c>
-      <c r="K94" t="n">
-        <v>90.90909090909091</v>
-      </c>
-      <c r="L94" t="n">
-        <v>709.6</v>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>709.1</v>
-      </c>
-      <c r="N94" t="n">
-        <v>708.9666666666667</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,49 +3838,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="C95" t="n">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="D95" t="n">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="E95" t="n">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="F95" t="n">
-        <v>186.0364</v>
+        <v>2045.7984</v>
       </c>
       <c r="G95" t="n">
-        <v>712.35</v>
+        <v>30959.52300875003</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J95" t="n">
-        <v>734</v>
-      </c>
-      <c r="K95" t="n">
-        <v>90</v>
-      </c>
-      <c r="L95" t="n">
-        <v>711.6</v>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>710.1</v>
-      </c>
-      <c r="N95" t="n">
-        <v>709.3</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,49 +3877,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="C96" t="n">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="D96" t="n">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="E96" t="n">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="F96" t="n">
-        <v>3</v>
+        <v>321.3601</v>
       </c>
       <c r="G96" t="n">
-        <v>712.4166666666666</v>
+        <v>30959.52300875003</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J96" t="n">
-        <v>734</v>
-      </c>
-      <c r="K96" t="n">
-        <v>100</v>
-      </c>
-      <c r="L96" t="n">
-        <v>713.4</v>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>710.95</v>
-      </c>
-      <c r="N96" t="n">
-        <v>709.6333333333333</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,46 +3919,34 @@
         <v>711</v>
       </c>
       <c r="C97" t="n">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="D97" t="n">
         <v>711</v>
       </c>
       <c r="E97" t="n">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="F97" t="n">
-        <v>4784.0507</v>
+        <v>1675.7407</v>
       </c>
       <c r="G97" t="n">
-        <v>711.8833333333333</v>
+        <v>30959.52300875003</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-69</v>
-      </c>
-      <c r="J97" t="n">
-        <v>753</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-2.702702702702703</v>
-      </c>
-      <c r="L97" t="n">
-        <v>713.4</v>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>711.15</v>
-      </c>
-      <c r="N97" t="n">
-        <v>709.3333333333334</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5221,49 +3955,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="C98" t="n">
-        <v>688</v>
+        <v>710</v>
       </c>
       <c r="D98" t="n">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="E98" t="n">
-        <v>688</v>
+        <v>710</v>
       </c>
       <c r="F98" t="n">
-        <v>3872.4002</v>
+        <v>11.7907</v>
       </c>
       <c r="G98" t="n">
-        <v>711.1666666666666</v>
+        <v>30959.52300875003</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-82</v>
-      </c>
-      <c r="J98" t="n">
-        <v>766</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-56.09756097560976</v>
-      </c>
-      <c r="L98" t="n">
-        <v>712</v>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>710.55</v>
-      </c>
-      <c r="N98" t="n">
-        <v>708.6</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5272,49 +3994,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>684</v>
+        <v>710</v>
       </c>
       <c r="C99" t="n">
-        <v>684</v>
+        <v>710</v>
       </c>
       <c r="D99" t="n">
-        <v>684</v>
+        <v>710</v>
       </c>
       <c r="E99" t="n">
-        <v>684</v>
+        <v>710</v>
       </c>
       <c r="F99" t="n">
-        <v>321.3158</v>
+        <v>990.045</v>
       </c>
       <c r="G99" t="n">
-        <v>710.2666666666667</v>
+        <v>30959.52300875003</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-86</v>
-      </c>
-      <c r="J99" t="n">
-        <v>770</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L99" t="n">
-        <v>709.3</v>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>709.1</v>
-      </c>
-      <c r="N99" t="n">
-        <v>707.7333333333333</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5323,49 +4033,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>692</v>
+        <v>710</v>
       </c>
       <c r="C100" t="n">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="D100" t="n">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="E100" t="n">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="F100" t="n">
-        <v>2010.0561</v>
+        <v>3104.0539</v>
       </c>
       <c r="G100" t="n">
-        <v>709.55</v>
+        <v>27855.46910875003</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-75</v>
-      </c>
-      <c r="J100" t="n">
-        <v>781</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-28.57142857142857</v>
-      </c>
-      <c r="L100" t="n">
-        <v>707.7</v>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>708.3</v>
-      </c>
-      <c r="N100" t="n">
-        <v>707.9666666666667</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5374,49 +4072,790 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>695</v>
+        <v>712</v>
       </c>
       <c r="C101" t="n">
-        <v>684</v>
+        <v>712</v>
       </c>
       <c r="D101" t="n">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="E101" t="n">
-        <v>684</v>
+        <v>712</v>
       </c>
       <c r="F101" t="n">
-        <v>5373.4826</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>708.9666666666667</v>
+        <v>27856.46910875003</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>-86</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>792</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-59.32203389830508</v>
-      </c>
-      <c r="L101" t="n">
-        <v>705</v>
+        <v>688</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>706.95</v>
-      </c>
-      <c r="N101" t="n">
-        <v>707.0333333333333</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>712</v>
+      </c>
+      <c r="C102" t="n">
+        <v>712</v>
+      </c>
+      <c r="D102" t="n">
+        <v>712</v>
+      </c>
+      <c r="E102" t="n">
+        <v>712</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1191.1947</v>
+      </c>
+      <c r="G102" t="n">
+        <v>27856.46910875003</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>713</v>
+      </c>
+      <c r="C103" t="n">
+        <v>713</v>
+      </c>
+      <c r="D103" t="n">
+        <v>713</v>
+      </c>
+      <c r="E103" t="n">
+        <v>713</v>
+      </c>
+      <c r="F103" t="n">
+        <v>497.4796</v>
+      </c>
+      <c r="G103" t="n">
+        <v>28353.94870875003</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>713</v>
+      </c>
+      <c r="C104" t="n">
+        <v>712</v>
+      </c>
+      <c r="D104" t="n">
+        <v>713</v>
+      </c>
+      <c r="E104" t="n">
+        <v>712</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1524.5273</v>
+      </c>
+      <c r="G104" t="n">
+        <v>26829.42140875003</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>700</v>
+      </c>
+      <c r="C105" t="n">
+        <v>700</v>
+      </c>
+      <c r="D105" t="n">
+        <v>700</v>
+      </c>
+      <c r="E105" t="n">
+        <v>700</v>
+      </c>
+      <c r="F105" t="n">
+        <v>613.3971</v>
+      </c>
+      <c r="G105" t="n">
+        <v>26216.02430875003</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>703</v>
+      </c>
+      <c r="C106" t="n">
+        <v>703</v>
+      </c>
+      <c r="D106" t="n">
+        <v>703</v>
+      </c>
+      <c r="E106" t="n">
+        <v>703</v>
+      </c>
+      <c r="F106" t="n">
+        <v>26.9959</v>
+      </c>
+      <c r="G106" t="n">
+        <v>26243.02020875003</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>700</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>701</v>
+      </c>
+      <c r="C107" t="n">
+        <v>697</v>
+      </c>
+      <c r="D107" t="n">
+        <v>701</v>
+      </c>
+      <c r="E107" t="n">
+        <v>697</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2475.8788</v>
+      </c>
+      <c r="G107" t="n">
+        <v>23767.14140875003</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>700</v>
+      </c>
+      <c r="C108" t="n">
+        <v>700</v>
+      </c>
+      <c r="D108" t="n">
+        <v>700</v>
+      </c>
+      <c r="E108" t="n">
+        <v>700</v>
+      </c>
+      <c r="F108" t="n">
+        <v>115.1864</v>
+      </c>
+      <c r="G108" t="n">
+        <v>23882.32780875003</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>697</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>713</v>
+      </c>
+      <c r="C109" t="n">
+        <v>713</v>
+      </c>
+      <c r="D109" t="n">
+        <v>713</v>
+      </c>
+      <c r="E109" t="n">
+        <v>713</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1</v>
+      </c>
+      <c r="G109" t="n">
+        <v>23883.32780875003</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>700</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>711</v>
+      </c>
+      <c r="C110" t="n">
+        <v>711</v>
+      </c>
+      <c r="D110" t="n">
+        <v>711</v>
+      </c>
+      <c r="E110" t="n">
+        <v>711</v>
+      </c>
+      <c r="F110" t="n">
+        <v>81</v>
+      </c>
+      <c r="G110" t="n">
+        <v>23802.32780875003</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>711</v>
+      </c>
+      <c r="C111" t="n">
+        <v>711</v>
+      </c>
+      <c r="D111" t="n">
+        <v>711</v>
+      </c>
+      <c r="E111" t="n">
+        <v>711</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="G111" t="n">
+        <v>23802.32780875003</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>719</v>
+      </c>
+      <c r="C112" t="n">
+        <v>719</v>
+      </c>
+      <c r="D112" t="n">
+        <v>719</v>
+      </c>
+      <c r="E112" t="n">
+        <v>719</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1.0268</v>
+      </c>
+      <c r="G112" t="n">
+        <v>23803.35460875003</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>719</v>
+      </c>
+      <c r="C113" t="n">
+        <v>721</v>
+      </c>
+      <c r="D113" t="n">
+        <v>721</v>
+      </c>
+      <c r="E113" t="n">
+        <v>719</v>
+      </c>
+      <c r="F113" t="n">
+        <v>573.2474999999999</v>
+      </c>
+      <c r="G113" t="n">
+        <v>24376.60210875003</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>711</v>
+      </c>
+      <c r="C114" t="n">
+        <v>711</v>
+      </c>
+      <c r="D114" t="n">
+        <v>711</v>
+      </c>
+      <c r="E114" t="n">
+        <v>711</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1.262</v>
+      </c>
+      <c r="G114" t="n">
+        <v>24375.34010875004</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>706</v>
+      </c>
+      <c r="C115" t="n">
+        <v>700</v>
+      </c>
+      <c r="D115" t="n">
+        <v>706</v>
+      </c>
+      <c r="E115" t="n">
+        <v>700</v>
+      </c>
+      <c r="F115" t="n">
+        <v>751.3378</v>
+      </c>
+      <c r="G115" t="n">
+        <v>23624.00230875003</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>702</v>
+      </c>
+      <c r="C116" t="n">
+        <v>702</v>
+      </c>
+      <c r="D116" t="n">
+        <v>702</v>
+      </c>
+      <c r="E116" t="n">
+        <v>702</v>
+      </c>
+      <c r="F116" t="n">
+        <v>97.4529</v>
+      </c>
+      <c r="G116" t="n">
+        <v>23721.45520875003</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>701</v>
+      </c>
+      <c r="C117" t="n">
+        <v>701</v>
+      </c>
+      <c r="D117" t="n">
+        <v>701</v>
+      </c>
+      <c r="E117" t="n">
+        <v>701</v>
+      </c>
+      <c r="F117" t="n">
+        <v>476.0128</v>
+      </c>
+      <c r="G117" t="n">
+        <v>23245.44240875003</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>701</v>
+      </c>
+      <c r="C118" t="n">
+        <v>702</v>
+      </c>
+      <c r="D118" t="n">
+        <v>702</v>
+      </c>
+      <c r="E118" t="n">
+        <v>701</v>
+      </c>
+      <c r="F118" t="n">
+        <v>783.6581</v>
+      </c>
+      <c r="G118" t="n">
+        <v>24029.10050875003</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>710</v>
+      </c>
+      <c r="C119" t="n">
+        <v>711</v>
+      </c>
+      <c r="D119" t="n">
+        <v>711</v>
+      </c>
+      <c r="E119" t="n">
+        <v>710</v>
+      </c>
+      <c r="F119" t="n">
+        <v>15</v>
+      </c>
+      <c r="G119" t="n">
+        <v>24044.10050875003</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>702</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>711</v>
+      </c>
+      <c r="C120" t="n">
+        <v>711</v>
+      </c>
+      <c r="D120" t="n">
+        <v>711</v>
+      </c>
+      <c r="E120" t="n">
+        <v>711</v>
+      </c>
+      <c r="F120" t="n">
+        <v>214.9857</v>
+      </c>
+      <c r="G120" t="n">
+        <v>24044.10050875003</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>711</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-15 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-15 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1259,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1329,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1364,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1399,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1539,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1574,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1679,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1714,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1854,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1889,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1924,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1959,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1994,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2673,6 +2741,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2714,6 +2783,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2755,6 +2825,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2796,6 +2867,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2835,6 +2907,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2876,6 +2949,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2915,6 +2989,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2954,6 +3029,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2993,6 +3069,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3032,6 +3109,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3071,6 +3149,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3112,6 +3191,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3153,6 +3233,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,6 +3275,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3233,6 +3315,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3274,6 +3357,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3315,6 +3399,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3356,6 +3441,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3397,6 +3483,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3438,6 +3525,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3477,6 +3565,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3518,6 +3607,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3557,6 +3647,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3596,6 +3687,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3635,6 +3727,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3674,6 +3767,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3715,6 +3809,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3754,6 +3849,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3793,6 +3889,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3832,6 +3929,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3871,6 +3969,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3910,6 +4009,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3949,6 +4049,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3988,6 +4089,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4027,6 +4129,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4066,6 +4169,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4107,6 +4211,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4146,6 +4251,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4185,6 +4291,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4224,6 +4331,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4263,6 +4371,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4304,6 +4413,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4343,6 +4453,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4384,6 +4495,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4425,6 +4537,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4464,6 +4577,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4503,6 +4617,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4542,6 +4657,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4581,6 +4697,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4620,6 +4737,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4659,6 +4777,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4698,6 +4817,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4737,6 +4857,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4776,6 +4897,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4817,6 +4939,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4858,6 +4981,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-15 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-15 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:N149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>769</v>
+        <v>800</v>
       </c>
       <c r="C2" t="n">
-        <v>770</v>
+        <v>799</v>
       </c>
       <c r="D2" t="n">
-        <v>770</v>
+        <v>800</v>
       </c>
       <c r="E2" t="n">
-        <v>766</v>
+        <v>732</v>
       </c>
       <c r="F2" t="n">
-        <v>8676.1801</v>
+        <v>133.6894</v>
       </c>
       <c r="G2" t="n">
-        <v>53137.52950280001</v>
+        <v>35232.29249203</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,32 +474,38 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>770</v>
+        <v>799</v>
       </c>
       <c r="C3" t="n">
-        <v>800</v>
+        <v>757</v>
       </c>
       <c r="D3" t="n">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E3" t="n">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="F3" t="n">
-        <v>3020.79729189</v>
+        <v>6158.0498</v>
       </c>
       <c r="G3" t="n">
-        <v>56158.32679469001</v>
+        <v>29074.24269203</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>799</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -510,22 +516,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>800</v>
+        <v>776</v>
       </c>
       <c r="C4" t="n">
-        <v>807</v>
+        <v>777</v>
       </c>
       <c r="D4" t="n">
-        <v>807</v>
+        <v>777</v>
       </c>
       <c r="E4" t="n">
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="F4" t="n">
-        <v>526.61617337</v>
+        <v>1998.19613602</v>
       </c>
       <c r="G4" t="n">
-        <v>56684.94296806001</v>
+        <v>31072.43882805</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -535,7 +541,11 @@
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,22 +556,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="C5" t="n">
-        <v>806</v>
+        <v>777</v>
       </c>
       <c r="D5" t="n">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="E5" t="n">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="F5" t="n">
-        <v>2596.4249</v>
+        <v>3197.5108</v>
       </c>
       <c r="G5" t="n">
-        <v>54088.51806806001</v>
+        <v>31072.43882805</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -571,7 +581,11 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,22 +596,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="C6" t="n">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="D6" t="n">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="E6" t="n">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="F6" t="n">
-        <v>94.19110000000001</v>
+        <v>4014.26868558</v>
       </c>
       <c r="G6" t="n">
-        <v>53994.32696806001</v>
+        <v>27058.17014247</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -607,7 +621,11 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,22 +636,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="C7" t="n">
-        <v>775</v>
+        <v>798</v>
       </c>
       <c r="D7" t="n">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="E7" t="n">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F7" t="n">
-        <v>4779.7477</v>
+        <v>8693.456</v>
       </c>
       <c r="G7" t="n">
-        <v>49214.57926806001</v>
+        <v>35751.62614247</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +661,11 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +676,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C8" t="n">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="D8" t="n">
-        <v>775</v>
+        <v>789</v>
       </c>
       <c r="E8" t="n">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="F8" t="n">
-        <v>1840.0663</v>
+        <v>7371.6621</v>
       </c>
       <c r="G8" t="n">
-        <v>49214.57926806001</v>
+        <v>28379.96404247</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -679,7 +701,11 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +716,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C9" t="n">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="D9" t="n">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E9" t="n">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="F9" t="n">
-        <v>122.1946</v>
+        <v>132.4419</v>
       </c>
       <c r="G9" t="n">
-        <v>49092.38466806</v>
+        <v>28247.52214247</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -715,7 +741,11 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,32 +756,38 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="C10" t="n">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="D10" t="n">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="E10" t="n">
         <v>769</v>
       </c>
       <c r="F10" t="n">
-        <v>294.5036</v>
+        <v>6282.9783</v>
       </c>
       <c r="G10" t="n">
-        <v>49386.88826806001</v>
+        <v>34530.50044246999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>775</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +798,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>750</v>
+        <v>778</v>
       </c>
       <c r="C11" t="n">
-        <v>733</v>
+        <v>797</v>
       </c>
       <c r="D11" t="n">
-        <v>750</v>
+        <v>797</v>
       </c>
       <c r="E11" t="n">
-        <v>733</v>
+        <v>778</v>
       </c>
       <c r="F11" t="n">
-        <v>966.5123</v>
+        <v>20256.48242756</v>
       </c>
       <c r="G11" t="n">
-        <v>48420.37596806001</v>
+        <v>54786.98287003</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -787,7 +823,11 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +838,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>757</v>
+        <v>797</v>
       </c>
       <c r="C12" t="n">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="D12" t="n">
-        <v>770</v>
+        <v>800</v>
       </c>
       <c r="E12" t="n">
-        <v>757</v>
+        <v>797</v>
       </c>
       <c r="F12" t="n">
-        <v>3259.65083576</v>
+        <v>4953.9367</v>
       </c>
       <c r="G12" t="n">
-        <v>51680.02680382001</v>
+        <v>54786.98287003</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -823,7 +863,11 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +878,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>767</v>
+        <v>796</v>
       </c>
       <c r="C13" t="n">
-        <v>767</v>
+        <v>784</v>
       </c>
       <c r="D13" t="n">
-        <v>770</v>
+        <v>796</v>
       </c>
       <c r="E13" t="n">
-        <v>767</v>
+        <v>784</v>
       </c>
       <c r="F13" t="n">
-        <v>2756.1664</v>
+        <v>1865.7671</v>
       </c>
       <c r="G13" t="n">
-        <v>54436.19320382001</v>
+        <v>52921.21577003</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -859,7 +903,11 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,22 +918,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>767</v>
+        <v>785</v>
       </c>
       <c r="C14" t="n">
-        <v>767</v>
+        <v>785</v>
       </c>
       <c r="D14" t="n">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="E14" t="n">
-        <v>767</v>
+        <v>785</v>
       </c>
       <c r="F14" t="n">
-        <v>3282.3667</v>
+        <v>304.41</v>
       </c>
       <c r="G14" t="n">
-        <v>54436.19320382001</v>
+        <v>53225.62577003</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -895,7 +943,11 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,22 +958,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>767</v>
+        <v>793</v>
       </c>
       <c r="C15" t="n">
-        <v>767</v>
+        <v>792</v>
       </c>
       <c r="D15" t="n">
-        <v>767</v>
+        <v>793</v>
       </c>
       <c r="E15" t="n">
-        <v>767</v>
+        <v>792</v>
       </c>
       <c r="F15" t="n">
-        <v>487.95106424</v>
+        <v>5325.4339</v>
       </c>
       <c r="G15" t="n">
-        <v>54436.19320382001</v>
+        <v>58551.05967003001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -931,7 +983,11 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +998,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>767</v>
+        <v>791</v>
       </c>
       <c r="C16" t="n">
-        <v>767</v>
+        <v>791</v>
       </c>
       <c r="D16" t="n">
-        <v>767</v>
+        <v>791</v>
       </c>
       <c r="E16" t="n">
-        <v>767</v>
+        <v>791</v>
       </c>
       <c r="F16" t="n">
-        <v>51.63913576</v>
+        <v>8483.992899999999</v>
       </c>
       <c r="G16" t="n">
-        <v>54436.19320382001</v>
+        <v>50067.06677003001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -967,7 +1023,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1038,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>764</v>
+        <v>791</v>
       </c>
       <c r="C17" t="n">
-        <v>767</v>
+        <v>791</v>
       </c>
       <c r="D17" t="n">
-        <v>767</v>
+        <v>791</v>
       </c>
       <c r="E17" t="n">
-        <v>764</v>
+        <v>791</v>
       </c>
       <c r="F17" t="n">
-        <v>73.60466424000001</v>
+        <v>89.1972</v>
       </c>
       <c r="G17" t="n">
-        <v>54436.19320382001</v>
+        <v>50067.06677003001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1003,7 +1063,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1078,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>772</v>
+        <v>786</v>
       </c>
       <c r="C18" t="n">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="D18" t="n">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="E18" t="n">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="F18" t="n">
-        <v>763.89687257</v>
+        <v>2204.7974</v>
       </c>
       <c r="G18" t="n">
-        <v>55200.09007639001</v>
+        <v>47862.26937003001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1039,7 +1103,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C19" t="n">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="D19" t="n">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="E19" t="n">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="F19" t="n">
-        <v>626.93069598</v>
+        <v>1831.0363</v>
       </c>
       <c r="G19" t="n">
-        <v>55200.09007639001</v>
+        <v>49693.30567003001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,7 +1143,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1158,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="C20" t="n">
-        <v>782</v>
+        <v>815</v>
       </c>
       <c r="D20" t="n">
-        <v>782</v>
+        <v>815</v>
       </c>
       <c r="E20" t="n">
         <v>782</v>
       </c>
       <c r="F20" t="n">
-        <v>81.5368</v>
+        <v>12189.20704699</v>
       </c>
       <c r="G20" t="n">
-        <v>55281.62687639002</v>
+        <v>61882.51271702001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1111,7 +1183,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1198,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C21" t="n">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="D21" t="n">
+        <v>794</v>
+      </c>
+      <c r="E21" t="n">
         <v>786</v>
       </c>
-      <c r="E21" t="n">
-        <v>774</v>
-      </c>
       <c r="F21" t="n">
-        <v>1587.91906632</v>
+        <v>2567.9131</v>
       </c>
       <c r="G21" t="n">
-        <v>53693.70781007002</v>
+        <v>59314.59961702001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1147,7 +1223,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1238,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="C22" t="n">
-        <v>773</v>
+        <v>677</v>
       </c>
       <c r="D22" t="n">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="E22" t="n">
-        <v>773</v>
+        <v>677</v>
       </c>
       <c r="F22" t="n">
-        <v>1352.7347</v>
+        <v>12367.6245</v>
       </c>
       <c r="G22" t="n">
-        <v>52340.97311007002</v>
+        <v>46946.97511702001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1183,7 +1263,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1278,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C23" t="n">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D23" t="n">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E23" t="n">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F23" t="n">
-        <v>11.1692</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>52329.80391007002</v>
+        <v>46947.97511702001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1219,7 +1303,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1318,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="C24" t="n">
-        <v>764</v>
+        <v>740</v>
       </c>
       <c r="D24" t="n">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="E24" t="n">
-        <v>764</v>
+        <v>740</v>
       </c>
       <c r="F24" t="n">
-        <v>222.938</v>
+        <v>100.1896</v>
       </c>
       <c r="G24" t="n">
-        <v>52552.74191007002</v>
+        <v>46847.78551702001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1255,7 +1343,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,32 +1358,36 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>772</v>
+        <v>738</v>
       </c>
       <c r="C25" t="n">
-        <v>767</v>
+        <v>713</v>
       </c>
       <c r="D25" t="n">
-        <v>773</v>
+        <v>738</v>
       </c>
       <c r="E25" t="n">
-        <v>765</v>
+        <v>706</v>
       </c>
       <c r="F25" t="n">
-        <v>573.9406</v>
+        <v>2613.7347</v>
       </c>
       <c r="G25" t="n">
-        <v>53126.68251007002</v>
+        <v>44234.05081702001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,32 +1398,36 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>768</v>
+        <v>713</v>
       </c>
       <c r="C26" t="n">
-        <v>768</v>
+        <v>712</v>
       </c>
       <c r="D26" t="n">
-        <v>768</v>
+        <v>713</v>
       </c>
       <c r="E26" t="n">
-        <v>768</v>
+        <v>711</v>
       </c>
       <c r="F26" t="n">
-        <v>101.6576</v>
+        <v>713.4908</v>
       </c>
       <c r="G26" t="n">
-        <v>53228.34011007002</v>
+        <v>43520.56001702001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,32 +1438,36 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>769</v>
+        <v>710</v>
       </c>
       <c r="C27" t="n">
-        <v>769</v>
+        <v>745</v>
       </c>
       <c r="D27" t="n">
-        <v>769</v>
+        <v>745</v>
       </c>
       <c r="E27" t="n">
-        <v>769</v>
+        <v>710</v>
       </c>
       <c r="F27" t="n">
-        <v>57.7</v>
+        <v>199.6068</v>
       </c>
       <c r="G27" t="n">
-        <v>53286.04011007002</v>
+        <v>43720.16681702001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,32 +1478,36 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>769</v>
+        <v>719</v>
       </c>
       <c r="C28" t="n">
-        <v>769</v>
+        <v>723</v>
       </c>
       <c r="D28" t="n">
-        <v>769</v>
+        <v>725</v>
       </c>
       <c r="E28" t="n">
-        <v>769</v>
+        <v>719</v>
       </c>
       <c r="F28" t="n">
-        <v>142.3</v>
+        <v>3238.6921</v>
       </c>
       <c r="G28" t="n">
-        <v>53286.04011007002</v>
+        <v>40481.47471702001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,32 +1518,36 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>769</v>
+        <v>723</v>
       </c>
       <c r="C29" t="n">
-        <v>769</v>
+        <v>719</v>
       </c>
       <c r="D29" t="n">
-        <v>769</v>
+        <v>736</v>
       </c>
       <c r="E29" t="n">
-        <v>769</v>
+        <v>719</v>
       </c>
       <c r="F29" t="n">
-        <v>200</v>
+        <v>1660.1148</v>
       </c>
       <c r="G29" t="n">
-        <v>53286.04011007002</v>
+        <v>38821.35991702001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>770</v>
+        <v>718</v>
       </c>
       <c r="C30" t="n">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D30" t="n">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E30" t="n">
-        <v>770</v>
+        <v>715</v>
       </c>
       <c r="F30" t="n">
-        <v>1018.0591</v>
+        <v>5639.98948578</v>
       </c>
       <c r="G30" t="n">
-        <v>54304.09921007002</v>
+        <v>44461.34940280001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1471,7 +1583,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,7 +1598,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C31" t="n">
         <v>770</v>
@@ -1491,13 +1607,13 @@
         <v>770</v>
       </c>
       <c r="E31" t="n">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="F31" t="n">
-        <v>600.0368</v>
+        <v>8676.1801</v>
       </c>
       <c r="G31" t="n">
-        <v>54304.09921007002</v>
+        <v>53137.52950280001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1507,7 +1623,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1521,19 +1641,19 @@
         <v>770</v>
       </c>
       <c r="C32" t="n">
-        <v>770</v>
+        <v>800</v>
       </c>
       <c r="D32" t="n">
-        <v>770</v>
+        <v>800</v>
       </c>
       <c r="E32" t="n">
         <v>770</v>
       </c>
       <c r="F32" t="n">
-        <v>7001.6921</v>
+        <v>3020.79729189</v>
       </c>
       <c r="G32" t="n">
-        <v>54304.09921007002</v>
+        <v>56158.32679469001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1543,7 +1663,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,32 +1678,36 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>772</v>
+        <v>800</v>
       </c>
       <c r="C33" t="n">
-        <v>771</v>
+        <v>807</v>
       </c>
       <c r="D33" t="n">
-        <v>787</v>
+        <v>807</v>
       </c>
       <c r="E33" t="n">
-        <v>771</v>
+        <v>800</v>
       </c>
       <c r="F33" t="n">
-        <v>352.6194526</v>
+        <v>526.61617337</v>
       </c>
       <c r="G33" t="n">
-        <v>54656.71866267002</v>
+        <v>56684.94296806001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,32 +1718,36 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="C34" t="n">
-        <v>778</v>
+        <v>806</v>
       </c>
       <c r="D34" t="n">
-        <v>778</v>
+        <v>806</v>
       </c>
       <c r="E34" t="n">
-        <v>771</v>
+        <v>791</v>
       </c>
       <c r="F34" t="n">
-        <v>588.405</v>
+        <v>2596.4249</v>
       </c>
       <c r="G34" t="n">
-        <v>55245.12366267002</v>
+        <v>54088.51806806001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,32 +1758,36 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="C35" t="n">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="D35" t="n">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="E35" t="n">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="F35" t="n">
-        <v>2034.6376</v>
+        <v>94.19110000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>57279.76126267002</v>
+        <v>53994.32696806001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,32 +1798,36 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>770</v>
+        <v>787</v>
       </c>
       <c r="C36" t="n">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="D36" t="n">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="E36" t="n">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="F36" t="n">
-        <v>688.6622</v>
+        <v>4779.7477</v>
       </c>
       <c r="G36" t="n">
-        <v>56591.09906267002</v>
+        <v>49214.57926806001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1838,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="C37" t="n">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="D37" t="n">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="E37" t="n">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="F37" t="n">
-        <v>1613.3301</v>
+        <v>1840.0663</v>
       </c>
       <c r="G37" t="n">
-        <v>54977.76896267002</v>
+        <v>49214.57926806001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1723,10 +1863,12 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -1734,22 +1876,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="C38" t="n">
-        <v>789</v>
+        <v>768</v>
       </c>
       <c r="D38" t="n">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="E38" t="n">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="F38" t="n">
-        <v>2078.77382623</v>
+        <v>122.1946</v>
       </c>
       <c r="G38" t="n">
-        <v>57056.54278890002</v>
+        <v>49092.38466806</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1912,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>788</v>
+        <v>769</v>
       </c>
       <c r="C39" t="n">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="D39" t="n">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="E39" t="n">
-        <v>788</v>
+        <v>769</v>
       </c>
       <c r="F39" t="n">
-        <v>218.60291508</v>
+        <v>294.5036</v>
       </c>
       <c r="G39" t="n">
-        <v>57056.54278890002</v>
+        <v>49386.88826806001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1948,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>774</v>
+        <v>750</v>
       </c>
       <c r="C40" t="n">
-        <v>774</v>
+        <v>733</v>
       </c>
       <c r="D40" t="n">
-        <v>774</v>
+        <v>750</v>
       </c>
       <c r="E40" t="n">
-        <v>774</v>
+        <v>733</v>
       </c>
       <c r="F40" t="n">
-        <v>25</v>
+        <v>966.5123</v>
       </c>
       <c r="G40" t="n">
-        <v>57031.54278890002</v>
+        <v>48420.37596806001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,28 +1984,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="C41" t="n">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="D41" t="n">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="E41" t="n">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="F41" t="n">
-        <v>688.7115</v>
+        <v>3259.65083576</v>
       </c>
       <c r="G41" t="n">
-        <v>56342.83128890002</v>
+        <v>51680.02680382001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1878,22 +2020,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="C42" t="n">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="D42" t="n">
-        <v>787</v>
+        <v>770</v>
       </c>
       <c r="E42" t="n">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>2756.1664</v>
       </c>
       <c r="G42" t="n">
-        <v>56352.83128890002</v>
+        <v>54436.19320382001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,28 +2056,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="C43" t="n">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="D43" t="n">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="E43" t="n">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F43" t="n">
-        <v>4273.9251</v>
+        <v>3282.3667</v>
       </c>
       <c r="G43" t="n">
-        <v>52078.90618890002</v>
+        <v>54436.19320382001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1950,28 +2092,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="C44" t="n">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="D44" t="n">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="E44" t="n">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="F44" t="n">
-        <v>3691.02913176</v>
+        <v>487.95106424</v>
       </c>
       <c r="G44" t="n">
-        <v>48387.87705714002</v>
+        <v>54436.19320382001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1986,28 +2128,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="C45" t="n">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="D45" t="n">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="E45" t="n">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="F45" t="n">
-        <v>483.04308387</v>
+        <v>51.63913576</v>
       </c>
       <c r="G45" t="n">
-        <v>48387.87705714002</v>
+        <v>54436.19320382001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2022,28 +2164,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C46" t="n">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="D46" t="n">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E46" t="n">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="F46" t="n">
-        <v>1497.3282</v>
+        <v>73.60466424000001</v>
       </c>
       <c r="G46" t="n">
-        <v>46890.54885714002</v>
+        <v>54436.19320382001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2058,22 +2200,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C47" t="n">
-        <v>752</v>
+        <v>773</v>
       </c>
       <c r="D47" t="n">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="E47" t="n">
-        <v>752</v>
+        <v>772</v>
       </c>
       <c r="F47" t="n">
-        <v>7010</v>
+        <v>763.89687257</v>
       </c>
       <c r="G47" t="n">
-        <v>39880.54885714002</v>
+        <v>55200.09007639001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2236,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>752</v>
+        <v>784</v>
       </c>
       <c r="C48" t="n">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="D48" t="n">
-        <v>760</v>
+        <v>784</v>
       </c>
       <c r="E48" t="n">
-        <v>752</v>
+        <v>773</v>
       </c>
       <c r="F48" t="n">
-        <v>320.7258</v>
+        <v>626.93069598</v>
       </c>
       <c r="G48" t="n">
-        <v>40201.27465714002</v>
+        <v>55200.09007639001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2272,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>762</v>
+        <v>782</v>
       </c>
       <c r="C49" t="n">
-        <v>735</v>
+        <v>782</v>
       </c>
       <c r="D49" t="n">
-        <v>762</v>
+        <v>782</v>
       </c>
       <c r="E49" t="n">
-        <v>735</v>
+        <v>782</v>
       </c>
       <c r="F49" t="n">
-        <v>2667.56006302</v>
+        <v>81.5368</v>
       </c>
       <c r="G49" t="n">
-        <v>37533.71459412002</v>
+        <v>55281.62687639002</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2308,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>728</v>
+        <v>782</v>
       </c>
       <c r="C50" t="n">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="D50" t="n">
-        <v>765</v>
+        <v>786</v>
       </c>
       <c r="E50" t="n">
-        <v>728</v>
+        <v>774</v>
       </c>
       <c r="F50" t="n">
-        <v>261.6803</v>
+        <v>1587.91906632</v>
       </c>
       <c r="G50" t="n">
-        <v>37795.39489412002</v>
+        <v>53693.70781007002</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2344,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>745</v>
+        <v>773</v>
       </c>
       <c r="C51" t="n">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="D51" t="n">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E51" t="n">
-        <v>745</v>
+        <v>773</v>
       </c>
       <c r="F51" t="n">
-        <v>195.85841193</v>
+        <v>1352.7347</v>
       </c>
       <c r="G51" t="n">
-        <v>37991.25330605002</v>
+        <v>52340.97311007002</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2380,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>742</v>
+        <v>762</v>
       </c>
       <c r="C52" t="n">
-        <v>742</v>
+        <v>762</v>
       </c>
       <c r="D52" t="n">
-        <v>742</v>
+        <v>762</v>
       </c>
       <c r="E52" t="n">
-        <v>742</v>
+        <v>762</v>
       </c>
       <c r="F52" t="n">
-        <v>11.1607</v>
+        <v>11.1692</v>
       </c>
       <c r="G52" t="n">
-        <v>37980.09260605002</v>
+        <v>52329.80391007002</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2416,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>740</v>
+        <v>764</v>
       </c>
       <c r="C53" t="n">
-        <v>740</v>
+        <v>764</v>
       </c>
       <c r="D53" t="n">
-        <v>740</v>
+        <v>764</v>
       </c>
       <c r="E53" t="n">
-        <v>740</v>
+        <v>764</v>
       </c>
       <c r="F53" t="n">
-        <v>78.17019999999999</v>
+        <v>222.938</v>
       </c>
       <c r="G53" t="n">
-        <v>37901.92240605002</v>
+        <v>52552.74191007002</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2452,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>740</v>
+        <v>772</v>
       </c>
       <c r="C54" t="n">
-        <v>740</v>
+        <v>767</v>
       </c>
       <c r="D54" t="n">
-        <v>740</v>
+        <v>773</v>
       </c>
       <c r="E54" t="n">
-        <v>740</v>
+        <v>765</v>
       </c>
       <c r="F54" t="n">
-        <v>500</v>
+        <v>573.9406</v>
       </c>
       <c r="G54" t="n">
-        <v>37901.92240605002</v>
+        <v>53126.68251007002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2488,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>743</v>
+        <v>768</v>
       </c>
       <c r="C55" t="n">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D55" t="n">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="E55" t="n">
-        <v>743</v>
+        <v>768</v>
       </c>
       <c r="F55" t="n">
-        <v>1972.14255388</v>
+        <v>101.6576</v>
       </c>
       <c r="G55" t="n">
-        <v>39874.06495993002</v>
+        <v>53228.34011007002</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2524,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>749</v>
+        <v>769</v>
       </c>
       <c r="C56" t="n">
-        <v>747</v>
+        <v>769</v>
       </c>
       <c r="D56" t="n">
-        <v>749</v>
+        <v>769</v>
       </c>
       <c r="E56" t="n">
-        <v>747</v>
+        <v>769</v>
       </c>
       <c r="F56" t="n">
-        <v>129.8684</v>
+        <v>57.7</v>
       </c>
       <c r="G56" t="n">
-        <v>39744.19655993002</v>
+        <v>53286.04011007002</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2560,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>737</v>
+        <v>769</v>
       </c>
       <c r="C57" t="n">
-        <v>737</v>
+        <v>769</v>
       </c>
       <c r="D57" t="n">
-        <v>737</v>
+        <v>769</v>
       </c>
       <c r="E57" t="n">
-        <v>737</v>
+        <v>769</v>
       </c>
       <c r="F57" t="n">
-        <v>29</v>
+        <v>142.3</v>
       </c>
       <c r="G57" t="n">
-        <v>39715.19655993002</v>
+        <v>53286.04011007002</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2596,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>740</v>
+        <v>769</v>
       </c>
       <c r="C58" t="n">
-        <v>741</v>
+        <v>769</v>
       </c>
       <c r="D58" t="n">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="E58" t="n">
-        <v>740</v>
+        <v>769</v>
       </c>
       <c r="F58" t="n">
-        <v>1105.45399843</v>
+        <v>200</v>
       </c>
       <c r="G58" t="n">
-        <v>40820.65055836002</v>
+        <v>53286.04011007002</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2632,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="C59" t="n">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="D59" t="n">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="E59" t="n">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>1018.0591</v>
       </c>
       <c r="G59" t="n">
-        <v>40830.65055836002</v>
+        <v>54304.09921007002</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2668,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>740</v>
+        <v>770</v>
       </c>
       <c r="C60" t="n">
-        <v>740</v>
+        <v>770</v>
       </c>
       <c r="D60" t="n">
-        <v>740</v>
+        <v>770</v>
       </c>
       <c r="E60" t="n">
-        <v>740</v>
+        <v>770</v>
       </c>
       <c r="F60" t="n">
-        <v>92.8318</v>
+        <v>600.0368</v>
       </c>
       <c r="G60" t="n">
-        <v>40737.81875836002</v>
+        <v>54304.09921007002</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2704,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="C61" t="n">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="D61" t="n">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="E61" t="n">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="F61" t="n">
-        <v>10.05305039</v>
+        <v>7001.6921</v>
       </c>
       <c r="G61" t="n">
-        <v>40747.87180875002</v>
+        <v>54304.09921007002</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,28 +2740,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>739</v>
+        <v>772</v>
       </c>
       <c r="C62" t="n">
-        <v>738</v>
+        <v>771</v>
       </c>
       <c r="D62" t="n">
-        <v>740</v>
+        <v>787</v>
       </c>
       <c r="E62" t="n">
-        <v>738</v>
+        <v>771</v>
       </c>
       <c r="F62" t="n">
-        <v>1400.1711</v>
+        <v>352.6194526</v>
       </c>
       <c r="G62" t="n">
-        <v>39347.70070875002</v>
+        <v>54656.71866267002</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2634,28 +2776,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>738</v>
+        <v>771</v>
       </c>
       <c r="C63" t="n">
-        <v>738</v>
+        <v>778</v>
       </c>
       <c r="D63" t="n">
-        <v>738</v>
+        <v>778</v>
       </c>
       <c r="E63" t="n">
-        <v>735</v>
+        <v>771</v>
       </c>
       <c r="F63" t="n">
-        <v>3626.13950691</v>
+        <v>588.405</v>
       </c>
       <c r="G63" t="n">
-        <v>39347.70070875002</v>
+        <v>55245.12366267002</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2670,28 +2812,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>731</v>
+        <v>781</v>
       </c>
       <c r="C64" t="n">
-        <v>721</v>
+        <v>781</v>
       </c>
       <c r="D64" t="n">
-        <v>731</v>
+        <v>782</v>
       </c>
       <c r="E64" t="n">
-        <v>721</v>
+        <v>781</v>
       </c>
       <c r="F64" t="n">
-        <v>1738.1281</v>
+        <v>2034.6376</v>
       </c>
       <c r="G64" t="n">
-        <v>37609.57260875002</v>
+        <v>57279.76126267002</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2706,38 +2848,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="C65" t="n">
-        <v>722</v>
+        <v>769</v>
       </c>
       <c r="D65" t="n">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="E65" t="n">
-        <v>721</v>
+        <v>769</v>
       </c>
       <c r="F65" t="n">
-        <v>3993.8979</v>
+        <v>688.6622</v>
       </c>
       <c r="G65" t="n">
-        <v>41603.47050875002</v>
+        <v>56591.09906267002</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>721</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2748,38 +2884,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>723</v>
+        <v>769</v>
       </c>
       <c r="C66" t="n">
-        <v>716</v>
+        <v>766</v>
       </c>
       <c r="D66" t="n">
-        <v>723</v>
+        <v>769</v>
       </c>
       <c r="E66" t="n">
-        <v>716</v>
+        <v>766</v>
       </c>
       <c r="F66" t="n">
-        <v>11826.3205</v>
+        <v>1613.3301</v>
       </c>
       <c r="G66" t="n">
-        <v>29777.15000875002</v>
+        <v>54977.76896267002</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>722</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2790,38 +2920,32 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>733</v>
+        <v>774</v>
       </c>
       <c r="C67" t="n">
-        <v>733</v>
+        <v>789</v>
       </c>
       <c r="D67" t="n">
-        <v>733</v>
+        <v>789</v>
       </c>
       <c r="E67" t="n">
-        <v>733</v>
+        <v>774</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>2078.77382623</v>
       </c>
       <c r="G67" t="n">
-        <v>29778.15000875002</v>
+        <v>57056.54278890002</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>716</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2832,38 +2956,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>731</v>
+        <v>788</v>
       </c>
       <c r="C68" t="n">
-        <v>731</v>
+        <v>789</v>
       </c>
       <c r="D68" t="n">
-        <v>731</v>
+        <v>789</v>
       </c>
       <c r="E68" t="n">
-        <v>731</v>
+        <v>788</v>
       </c>
       <c r="F68" t="n">
-        <v>201.1929</v>
+        <v>218.60291508</v>
       </c>
       <c r="G68" t="n">
-        <v>29576.95710875002</v>
+        <v>57056.54278890002</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>733</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2874,36 +2992,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>737</v>
+        <v>774</v>
       </c>
       <c r="C69" t="n">
-        <v>738</v>
+        <v>774</v>
       </c>
       <c r="D69" t="n">
-        <v>738</v>
+        <v>774</v>
       </c>
       <c r="E69" t="n">
-        <v>737</v>
+        <v>774</v>
       </c>
       <c r="F69" t="n">
-        <v>530.7121</v>
+        <v>25</v>
       </c>
       <c r="G69" t="n">
-        <v>30107.66920875002</v>
+        <v>57031.54278890002</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2914,38 +3028,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>738</v>
+        <v>766</v>
       </c>
       <c r="C70" t="n">
-        <v>738</v>
+        <v>766</v>
       </c>
       <c r="D70" t="n">
-        <v>738</v>
+        <v>766</v>
       </c>
       <c r="E70" t="n">
-        <v>738</v>
+        <v>766</v>
       </c>
       <c r="F70" t="n">
-        <v>107.2553</v>
+        <v>688.7115</v>
       </c>
       <c r="G70" t="n">
-        <v>30107.66920875002</v>
+        <v>56342.83128890002</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>738</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2956,36 +3064,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>720</v>
+        <v>787</v>
       </c>
       <c r="C71" t="n">
-        <v>719</v>
+        <v>787</v>
       </c>
       <c r="D71" t="n">
-        <v>720</v>
+        <v>787</v>
       </c>
       <c r="E71" t="n">
-        <v>719</v>
+        <v>787</v>
       </c>
       <c r="F71" t="n">
-        <v>88.9742</v>
+        <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>30018.69500875002</v>
+        <v>56352.83128890002</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2996,36 +3100,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>720</v>
+        <v>773</v>
       </c>
       <c r="C72" t="n">
-        <v>713</v>
+        <v>783</v>
       </c>
       <c r="D72" t="n">
-        <v>720</v>
+        <v>783</v>
       </c>
       <c r="E72" t="n">
-        <v>713</v>
+        <v>773</v>
       </c>
       <c r="F72" t="n">
-        <v>10497.4652</v>
+        <v>4273.9251</v>
       </c>
       <c r="G72" t="n">
-        <v>19521.22980875002</v>
+        <v>52078.90618890002</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3036,36 +3136,32 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>710</v>
+        <v>775</v>
       </c>
       <c r="C73" t="n">
-        <v>710</v>
+        <v>775</v>
       </c>
       <c r="D73" t="n">
-        <v>710</v>
+        <v>777</v>
       </c>
       <c r="E73" t="n">
-        <v>710</v>
+        <v>775</v>
       </c>
       <c r="F73" t="n">
-        <v>1731.4911</v>
+        <v>3691.02913176</v>
       </c>
       <c r="G73" t="n">
-        <v>17789.73870875002</v>
+        <v>48387.87705714002</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3076,36 +3172,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>710</v>
+        <v>777</v>
       </c>
       <c r="C74" t="n">
-        <v>710</v>
+        <v>775</v>
       </c>
       <c r="D74" t="n">
-        <v>710</v>
+        <v>777</v>
       </c>
       <c r="E74" t="n">
-        <v>710</v>
+        <v>775</v>
       </c>
       <c r="F74" t="n">
-        <v>763.1187</v>
+        <v>483.04308387</v>
       </c>
       <c r="G74" t="n">
-        <v>17789.73870875002</v>
+        <v>48387.87705714002</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3116,36 +3208,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>713</v>
+        <v>766</v>
       </c>
       <c r="C75" t="n">
-        <v>711</v>
+        <v>760</v>
       </c>
       <c r="D75" t="n">
-        <v>713</v>
+        <v>766</v>
       </c>
       <c r="E75" t="n">
-        <v>711</v>
+        <v>760</v>
       </c>
       <c r="F75" t="n">
-        <v>759.615</v>
+        <v>1497.3282</v>
       </c>
       <c r="G75" t="n">
-        <v>18549.35370875002</v>
+        <v>46890.54885714002</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3156,38 +3244,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>710</v>
+        <v>775</v>
       </c>
       <c r="C76" t="n">
-        <v>704</v>
+        <v>752</v>
       </c>
       <c r="D76" t="n">
-        <v>710</v>
+        <v>775</v>
       </c>
       <c r="E76" t="n">
-        <v>704</v>
+        <v>752</v>
       </c>
       <c r="F76" t="n">
-        <v>1442.5984</v>
+        <v>7010</v>
       </c>
       <c r="G76" t="n">
-        <v>17106.75530875002</v>
+        <v>39880.54885714002</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>711</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3198,38 +3280,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>704</v>
+        <v>752</v>
       </c>
       <c r="C77" t="n">
-        <v>705</v>
+        <v>760</v>
       </c>
       <c r="D77" t="n">
-        <v>705</v>
+        <v>760</v>
       </c>
       <c r="E77" t="n">
-        <v>701</v>
+        <v>752</v>
       </c>
       <c r="F77" t="n">
-        <v>7707.244</v>
+        <v>320.7258</v>
       </c>
       <c r="G77" t="n">
-        <v>24813.99930875002</v>
+        <v>40201.27465714002</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>704</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3240,38 +3316,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>705</v>
+        <v>762</v>
       </c>
       <c r="C78" t="n">
-        <v>705</v>
+        <v>735</v>
       </c>
       <c r="D78" t="n">
-        <v>705</v>
+        <v>762</v>
       </c>
       <c r="E78" t="n">
-        <v>705</v>
+        <v>735</v>
       </c>
       <c r="F78" t="n">
-        <v>958.0863000000001</v>
+        <v>2667.56006302</v>
       </c>
       <c r="G78" t="n">
-        <v>24813.99930875002</v>
+        <v>37533.71459412002</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>705</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3282,36 +3352,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>708</v>
+        <v>728</v>
       </c>
       <c r="C79" t="n">
-        <v>723</v>
+        <v>765</v>
       </c>
       <c r="D79" t="n">
-        <v>723</v>
+        <v>765</v>
       </c>
       <c r="E79" t="n">
-        <v>705</v>
+        <v>728</v>
       </c>
       <c r="F79" t="n">
-        <v>6046.1439</v>
+        <v>261.6803</v>
       </c>
       <c r="G79" t="n">
-        <v>30860.14320875002</v>
+        <v>37795.39489412002</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3322,38 +3388,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>711</v>
+        <v>745</v>
       </c>
       <c r="C80" t="n">
-        <v>712</v>
+        <v>771</v>
       </c>
       <c r="D80" t="n">
-        <v>712</v>
+        <v>771</v>
       </c>
       <c r="E80" t="n">
-        <v>711</v>
+        <v>745</v>
       </c>
       <c r="F80" t="n">
-        <v>1192.0575</v>
+        <v>195.85841193</v>
       </c>
       <c r="G80" t="n">
-        <v>29668.08570875002</v>
+        <v>37991.25330605002</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>723</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3364,38 +3424,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>711</v>
+        <v>742</v>
       </c>
       <c r="C81" t="n">
-        <v>713</v>
+        <v>742</v>
       </c>
       <c r="D81" t="n">
-        <v>713</v>
+        <v>742</v>
       </c>
       <c r="E81" t="n">
-        <v>711</v>
+        <v>742</v>
       </c>
       <c r="F81" t="n">
-        <v>3389.0143</v>
+        <v>11.1607</v>
       </c>
       <c r="G81" t="n">
-        <v>33057.10000875002</v>
+        <v>37980.09260605002</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>712</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3406,38 +3460,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>712</v>
+        <v>740</v>
       </c>
       <c r="C82" t="n">
-        <v>700</v>
+        <v>740</v>
       </c>
       <c r="D82" t="n">
-        <v>712</v>
+        <v>740</v>
       </c>
       <c r="E82" t="n">
-        <v>700</v>
+        <v>740</v>
       </c>
       <c r="F82" t="n">
-        <v>846.846</v>
+        <v>78.17019999999999</v>
       </c>
       <c r="G82" t="n">
-        <v>32210.25400875002</v>
+        <v>37901.92240605002</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>713</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3448,38 +3496,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>712</v>
+        <v>740</v>
       </c>
       <c r="C83" t="n">
-        <v>712</v>
+        <v>740</v>
       </c>
       <c r="D83" t="n">
-        <v>712</v>
+        <v>740</v>
       </c>
       <c r="E83" t="n">
-        <v>712</v>
+        <v>740</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G83" t="n">
-        <v>32211.25400875002</v>
+        <v>37901.92240605002</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>700</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3490,38 +3532,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>705</v>
+        <v>743</v>
       </c>
       <c r="C84" t="n">
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="D84" t="n">
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="E84" t="n">
-        <v>705</v>
+        <v>743</v>
       </c>
       <c r="F84" t="n">
-        <v>413.7934</v>
+        <v>1972.14255388</v>
       </c>
       <c r="G84" t="n">
-        <v>31797.46060875002</v>
+        <v>39874.06495993002</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>712</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3532,22 +3568,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>711</v>
+        <v>749</v>
       </c>
       <c r="C85" t="n">
-        <v>704</v>
+        <v>747</v>
       </c>
       <c r="D85" t="n">
-        <v>711</v>
+        <v>749</v>
       </c>
       <c r="E85" t="n">
-        <v>704</v>
+        <v>747</v>
       </c>
       <c r="F85" t="n">
-        <v>648.3526000000001</v>
+        <v>129.8684</v>
       </c>
       <c r="G85" t="n">
-        <v>31149.10800875002</v>
+        <v>39744.19655993002</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3557,11 +3593,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3572,38 +3604,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>712</v>
+        <v>737</v>
       </c>
       <c r="C86" t="n">
-        <v>713</v>
+        <v>737</v>
       </c>
       <c r="D86" t="n">
-        <v>713</v>
+        <v>737</v>
       </c>
       <c r="E86" t="n">
-        <v>712</v>
+        <v>737</v>
       </c>
       <c r="F86" t="n">
-        <v>561.6813</v>
+        <v>29</v>
       </c>
       <c r="G86" t="n">
-        <v>31710.78930875002</v>
+        <v>39715.19655993002</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>704</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3614,22 +3640,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>715</v>
+        <v>740</v>
       </c>
       <c r="C87" t="n">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="D87" t="n">
-        <v>732</v>
+        <v>766</v>
       </c>
       <c r="E87" t="n">
-        <v>714</v>
+        <v>740</v>
       </c>
       <c r="F87" t="n">
-        <v>2848.0926</v>
+        <v>1105.45399843</v>
       </c>
       <c r="G87" t="n">
-        <v>34558.88190875002</v>
+        <v>40820.65055836002</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3639,11 +3665,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3654,22 +3676,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>710</v>
+        <v>759</v>
       </c>
       <c r="C88" t="n">
-        <v>710</v>
+        <v>759</v>
       </c>
       <c r="D88" t="n">
-        <v>710</v>
+        <v>759</v>
       </c>
       <c r="E88" t="n">
-        <v>710</v>
+        <v>759</v>
       </c>
       <c r="F88" t="n">
-        <v>106.8549</v>
+        <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>34452.02700875002</v>
+        <v>40830.65055836002</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3679,11 +3701,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3694,22 +3712,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>709</v>
+        <v>740</v>
       </c>
       <c r="C89" t="n">
-        <v>710</v>
+        <v>740</v>
       </c>
       <c r="D89" t="n">
-        <v>710</v>
+        <v>740</v>
       </c>
       <c r="E89" t="n">
-        <v>709</v>
+        <v>740</v>
       </c>
       <c r="F89" t="n">
-        <v>3048.7594</v>
+        <v>92.8318</v>
       </c>
       <c r="G89" t="n">
-        <v>34452.02700875002</v>
+        <v>40737.81875836002</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3719,11 +3737,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3734,22 +3748,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>710</v>
+        <v>754</v>
       </c>
       <c r="C90" t="n">
-        <v>710</v>
+        <v>754</v>
       </c>
       <c r="D90" t="n">
-        <v>711</v>
+        <v>754</v>
       </c>
       <c r="E90" t="n">
-        <v>710</v>
+        <v>754</v>
       </c>
       <c r="F90" t="n">
-        <v>3087.7414</v>
+        <v>10.05305039</v>
       </c>
       <c r="G90" t="n">
-        <v>34452.02700875002</v>
+        <v>40747.87180875002</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3759,11 +3773,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3774,38 +3784,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>711</v>
+        <v>739</v>
       </c>
       <c r="C91" t="n">
-        <v>711</v>
+        <v>738</v>
       </c>
       <c r="D91" t="n">
-        <v>711</v>
+        <v>740</v>
       </c>
       <c r="E91" t="n">
-        <v>711</v>
+        <v>738</v>
       </c>
       <c r="F91" t="n">
-        <v>77.9747</v>
+        <v>1400.1711</v>
       </c>
       <c r="G91" t="n">
-        <v>34530.00170875002</v>
+        <v>39347.70070875002</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>710</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3816,22 +3820,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>723</v>
+        <v>738</v>
       </c>
       <c r="C92" t="n">
-        <v>723</v>
+        <v>738</v>
       </c>
       <c r="D92" t="n">
-        <v>723</v>
+        <v>738</v>
       </c>
       <c r="E92" t="n">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="F92" t="n">
-        <v>631.9930000000001</v>
+        <v>3626.13950691</v>
       </c>
       <c r="G92" t="n">
-        <v>35161.99470875003</v>
+        <v>39347.70070875002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3841,11 +3845,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3856,22 +3856,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="C93" t="n">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D93" t="n">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="E93" t="n">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F93" t="n">
-        <v>47.6183</v>
+        <v>1738.1281</v>
       </c>
       <c r="G93" t="n">
-        <v>35209.61300875003</v>
+        <v>37609.57260875002</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3881,11 +3881,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3896,22 +3892,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="C94" t="n">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="D94" t="n">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="E94" t="n">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="F94" t="n">
-        <v>2204.2916</v>
+        <v>3993.8979</v>
       </c>
       <c r="G94" t="n">
-        <v>33005.32140875003</v>
+        <v>41603.47050875002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3921,11 +3917,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3936,22 +3928,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="C95" t="n">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="D95" t="n">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="E95" t="n">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="F95" t="n">
-        <v>2045.7984</v>
+        <v>11826.3205</v>
       </c>
       <c r="G95" t="n">
-        <v>30959.52300875003</v>
+        <v>29777.15000875002</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3961,11 +3953,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3976,22 +3964,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>710</v>
+        <v>733</v>
       </c>
       <c r="C96" t="n">
-        <v>710</v>
+        <v>733</v>
       </c>
       <c r="D96" t="n">
-        <v>710</v>
+        <v>733</v>
       </c>
       <c r="E96" t="n">
-        <v>710</v>
+        <v>733</v>
       </c>
       <c r="F96" t="n">
-        <v>321.3601</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>30959.52300875003</v>
+        <v>29778.15000875002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4001,11 +3989,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4016,22 +4000,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>711</v>
+        <v>731</v>
       </c>
       <c r="C97" t="n">
-        <v>710</v>
+        <v>731</v>
       </c>
       <c r="D97" t="n">
-        <v>711</v>
+        <v>731</v>
       </c>
       <c r="E97" t="n">
-        <v>710</v>
+        <v>731</v>
       </c>
       <c r="F97" t="n">
-        <v>1675.7407</v>
+        <v>201.1929</v>
       </c>
       <c r="G97" t="n">
-        <v>30959.52300875003</v>
+        <v>29576.95710875002</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4041,11 +4025,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4056,22 +4036,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>710</v>
+        <v>737</v>
       </c>
       <c r="C98" t="n">
-        <v>710</v>
+        <v>738</v>
       </c>
       <c r="D98" t="n">
-        <v>710</v>
+        <v>738</v>
       </c>
       <c r="E98" t="n">
-        <v>710</v>
+        <v>737</v>
       </c>
       <c r="F98" t="n">
-        <v>11.7907</v>
+        <v>530.7121</v>
       </c>
       <c r="G98" t="n">
-        <v>30959.52300875003</v>
+        <v>30107.66920875002</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4081,11 +4061,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4096,22 +4072,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>710</v>
+        <v>738</v>
       </c>
       <c r="C99" t="n">
-        <v>710</v>
+        <v>738</v>
       </c>
       <c r="D99" t="n">
-        <v>710</v>
+        <v>738</v>
       </c>
       <c r="E99" t="n">
-        <v>710</v>
+        <v>738</v>
       </c>
       <c r="F99" t="n">
-        <v>990.045</v>
+        <v>107.2553</v>
       </c>
       <c r="G99" t="n">
-        <v>30959.52300875003</v>
+        <v>30107.66920875002</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4121,11 +4097,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4136,22 +4108,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="C100" t="n">
-        <v>688</v>
+        <v>719</v>
       </c>
       <c r="D100" t="n">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="E100" t="n">
-        <v>688</v>
+        <v>719</v>
       </c>
       <c r="F100" t="n">
-        <v>3104.0539</v>
+        <v>88.9742</v>
       </c>
       <c r="G100" t="n">
-        <v>27855.46910875003</v>
+        <v>30018.69500875002</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4161,11 +4133,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4176,38 +4144,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="C101" t="n">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D101" t="n">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="E101" t="n">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>10497.4652</v>
       </c>
       <c r="G101" t="n">
-        <v>27856.46910875003</v>
+        <v>19521.22980875002</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>688</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4218,22 +4180,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C102" t="n">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D102" t="n">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E102" t="n">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F102" t="n">
-        <v>1191.1947</v>
+        <v>1731.4911</v>
       </c>
       <c r="G102" t="n">
-        <v>27856.46910875003</v>
+        <v>17789.73870875002</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4243,11 +4205,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4258,22 +4216,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C103" t="n">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D103" t="n">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E103" t="n">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F103" t="n">
-        <v>497.4796</v>
+        <v>763.1187</v>
       </c>
       <c r="G103" t="n">
-        <v>28353.94870875003</v>
+        <v>17789.73870875002</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4283,11 +4241,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4301,19 +4255,19 @@
         <v>713</v>
       </c>
       <c r="C104" t="n">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D104" t="n">
         <v>713</v>
       </c>
       <c r="E104" t="n">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F104" t="n">
-        <v>1524.5273</v>
+        <v>759.615</v>
       </c>
       <c r="G104" t="n">
-        <v>26829.42140875003</v>
+        <v>18549.35370875002</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4323,11 +4277,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4338,22 +4288,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="C105" t="n">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="D105" t="n">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="E105" t="n">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="F105" t="n">
-        <v>613.3971</v>
+        <v>1442.5984</v>
       </c>
       <c r="G105" t="n">
-        <v>26216.02430875003</v>
+        <v>17106.75530875002</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4363,11 +4313,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4378,38 +4324,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C106" t="n">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D106" t="n">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="E106" t="n">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F106" t="n">
-        <v>26.9959</v>
+        <v>7707.244</v>
       </c>
       <c r="G106" t="n">
-        <v>26243.02020875003</v>
+        <v>24813.99930875002</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>700</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4420,22 +4360,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C107" t="n">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="D107" t="n">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="E107" t="n">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="F107" t="n">
-        <v>2475.8788</v>
+        <v>958.0863000000001</v>
       </c>
       <c r="G107" t="n">
-        <v>23767.14140875003</v>
+        <v>24813.99930875002</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4445,11 +4385,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4460,38 +4396,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="C108" t="n">
-        <v>700</v>
+        <v>723</v>
       </c>
       <c r="D108" t="n">
-        <v>700</v>
+        <v>723</v>
       </c>
       <c r="E108" t="n">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="F108" t="n">
-        <v>115.1864</v>
+        <v>6046.1439</v>
       </c>
       <c r="G108" t="n">
-        <v>23882.32780875003</v>
+        <v>30860.14320875002</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>697</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4502,38 +4432,32 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C109" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D109" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E109" t="n">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>1192.0575</v>
       </c>
       <c r="G109" t="n">
-        <v>23883.32780875003</v>
+        <v>29668.08570875002</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>700</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4547,19 +4471,19 @@
         <v>711</v>
       </c>
       <c r="C110" t="n">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D110" t="n">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="E110" t="n">
         <v>711</v>
       </c>
       <c r="F110" t="n">
-        <v>81</v>
+        <v>3389.0143</v>
       </c>
       <c r="G110" t="n">
-        <v>23802.32780875003</v>
+        <v>33057.10000875002</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4569,11 +4493,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4584,22 +4504,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C111" t="n">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="D111" t="n">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E111" t="n">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="F111" t="n">
-        <v>0.462</v>
+        <v>846.846</v>
       </c>
       <c r="G111" t="n">
-        <v>23802.32780875003</v>
+        <v>32210.25400875002</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4609,11 +4529,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4624,22 +4540,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="C112" t="n">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="D112" t="n">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="E112" t="n">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="F112" t="n">
-        <v>1.0268</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>23803.35460875003</v>
+        <v>32211.25400875002</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4649,11 +4565,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4664,22 +4576,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="C113" t="n">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="D113" t="n">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="E113" t="n">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="F113" t="n">
-        <v>573.2474999999999</v>
+        <v>413.7934</v>
       </c>
       <c r="G113" t="n">
-        <v>24376.60210875003</v>
+        <v>31797.46060875002</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4689,11 +4601,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4707,19 +4615,19 @@
         <v>711</v>
       </c>
       <c r="C114" t="n">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="D114" t="n">
         <v>711</v>
       </c>
       <c r="E114" t="n">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F114" t="n">
-        <v>1.262</v>
+        <v>648.3526000000001</v>
       </c>
       <c r="G114" t="n">
-        <v>24375.34010875004</v>
+        <v>31149.10800875002</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4729,11 +4637,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4744,22 +4648,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="C115" t="n">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="D115" t="n">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="E115" t="n">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="F115" t="n">
-        <v>751.3378</v>
+        <v>561.6813</v>
       </c>
       <c r="G115" t="n">
-        <v>23624.00230875003</v>
+        <v>31710.78930875002</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4769,11 +4673,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4784,22 +4684,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="C116" t="n">
-        <v>702</v>
+        <v>732</v>
       </c>
       <c r="D116" t="n">
-        <v>702</v>
+        <v>732</v>
       </c>
       <c r="E116" t="n">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="F116" t="n">
-        <v>97.4529</v>
+        <v>2848.0926</v>
       </c>
       <c r="G116" t="n">
-        <v>23721.45520875003</v>
+        <v>34558.88190875002</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4809,11 +4709,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4824,22 +4720,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="C117" t="n">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="D117" t="n">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="E117" t="n">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="F117" t="n">
-        <v>476.0128</v>
+        <v>106.8549</v>
       </c>
       <c r="G117" t="n">
-        <v>23245.44240875003</v>
+        <v>34452.02700875002</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4849,11 +4745,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4864,22 +4756,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="C118" t="n">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="D118" t="n">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="E118" t="n">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="F118" t="n">
-        <v>783.6581</v>
+        <v>3048.7594</v>
       </c>
       <c r="G118" t="n">
-        <v>24029.10050875003</v>
+        <v>34452.02700875002</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4889,11 +4781,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4907,7 +4795,7 @@
         <v>710</v>
       </c>
       <c r="C119" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D119" t="n">
         <v>711</v>
@@ -4916,26 +4804,20 @@
         <v>710</v>
       </c>
       <c r="F119" t="n">
-        <v>15</v>
+        <v>3087.7414</v>
       </c>
       <c r="G119" t="n">
-        <v>24044.10050875003</v>
+        <v>34452.02700875002</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>702</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4958,30 +4840,1068 @@
         <v>711</v>
       </c>
       <c r="F120" t="n">
+        <v>77.9747</v>
+      </c>
+      <c r="G120" t="n">
+        <v>34530.00170875002</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>723</v>
+      </c>
+      <c r="C121" t="n">
+        <v>723</v>
+      </c>
+      <c r="D121" t="n">
+        <v>723</v>
+      </c>
+      <c r="E121" t="n">
+        <v>723</v>
+      </c>
+      <c r="F121" t="n">
+        <v>631.9930000000001</v>
+      </c>
+      <c r="G121" t="n">
+        <v>35161.99470875003</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>724</v>
+      </c>
+      <c r="C122" t="n">
+        <v>724</v>
+      </c>
+      <c r="D122" t="n">
+        <v>724</v>
+      </c>
+      <c r="E122" t="n">
+        <v>724</v>
+      </c>
+      <c r="F122" t="n">
+        <v>47.6183</v>
+      </c>
+      <c r="G122" t="n">
+        <v>35209.61300875003</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>712</v>
+      </c>
+      <c r="C123" t="n">
+        <v>711</v>
+      </c>
+      <c r="D123" t="n">
+        <v>712</v>
+      </c>
+      <c r="E123" t="n">
+        <v>711</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2204.2916</v>
+      </c>
+      <c r="G123" t="n">
+        <v>33005.32140875003</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>713</v>
+      </c>
+      <c r="C124" t="n">
+        <v>710</v>
+      </c>
+      <c r="D124" t="n">
+        <v>713</v>
+      </c>
+      <c r="E124" t="n">
+        <v>710</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2045.7984</v>
+      </c>
+      <c r="G124" t="n">
+        <v>30959.52300875003</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>710</v>
+      </c>
+      <c r="C125" t="n">
+        <v>710</v>
+      </c>
+      <c r="D125" t="n">
+        <v>710</v>
+      </c>
+      <c r="E125" t="n">
+        <v>710</v>
+      </c>
+      <c r="F125" t="n">
+        <v>321.3601</v>
+      </c>
+      <c r="G125" t="n">
+        <v>30959.52300875003</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>711</v>
+      </c>
+      <c r="C126" t="n">
+        <v>710</v>
+      </c>
+      <c r="D126" t="n">
+        <v>711</v>
+      </c>
+      <c r="E126" t="n">
+        <v>710</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1675.7407</v>
+      </c>
+      <c r="G126" t="n">
+        <v>30959.52300875003</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>710</v>
+      </c>
+      <c r="C127" t="n">
+        <v>710</v>
+      </c>
+      <c r="D127" t="n">
+        <v>710</v>
+      </c>
+      <c r="E127" t="n">
+        <v>710</v>
+      </c>
+      <c r="F127" t="n">
+        <v>11.7907</v>
+      </c>
+      <c r="G127" t="n">
+        <v>30959.52300875003</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>710</v>
+      </c>
+      <c r="C128" t="n">
+        <v>710</v>
+      </c>
+      <c r="D128" t="n">
+        <v>710</v>
+      </c>
+      <c r="E128" t="n">
+        <v>710</v>
+      </c>
+      <c r="F128" t="n">
+        <v>990.045</v>
+      </c>
+      <c r="G128" t="n">
+        <v>30959.52300875003</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>710</v>
+      </c>
+      <c r="C129" t="n">
+        <v>688</v>
+      </c>
+      <c r="D129" t="n">
+        <v>710</v>
+      </c>
+      <c r="E129" t="n">
+        <v>688</v>
+      </c>
+      <c r="F129" t="n">
+        <v>3104.0539</v>
+      </c>
+      <c r="G129" t="n">
+        <v>27855.46910875003</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>712</v>
+      </c>
+      <c r="C130" t="n">
+        <v>712</v>
+      </c>
+      <c r="D130" t="n">
+        <v>712</v>
+      </c>
+      <c r="E130" t="n">
+        <v>712</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>27856.46910875003</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>712</v>
+      </c>
+      <c r="C131" t="n">
+        <v>712</v>
+      </c>
+      <c r="D131" t="n">
+        <v>712</v>
+      </c>
+      <c r="E131" t="n">
+        <v>712</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1191.1947</v>
+      </c>
+      <c r="G131" t="n">
+        <v>27856.46910875003</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>713</v>
+      </c>
+      <c r="C132" t="n">
+        <v>713</v>
+      </c>
+      <c r="D132" t="n">
+        <v>713</v>
+      </c>
+      <c r="E132" t="n">
+        <v>713</v>
+      </c>
+      <c r="F132" t="n">
+        <v>497.4796</v>
+      </c>
+      <c r="G132" t="n">
+        <v>28353.94870875003</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>713</v>
+      </c>
+      <c r="C133" t="n">
+        <v>712</v>
+      </c>
+      <c r="D133" t="n">
+        <v>713</v>
+      </c>
+      <c r="E133" t="n">
+        <v>712</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1524.5273</v>
+      </c>
+      <c r="G133" t="n">
+        <v>26829.42140875003</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>700</v>
+      </c>
+      <c r="C134" t="n">
+        <v>700</v>
+      </c>
+      <c r="D134" t="n">
+        <v>700</v>
+      </c>
+      <c r="E134" t="n">
+        <v>700</v>
+      </c>
+      <c r="F134" t="n">
+        <v>613.3971</v>
+      </c>
+      <c r="G134" t="n">
+        <v>26216.02430875003</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>703</v>
+      </c>
+      <c r="C135" t="n">
+        <v>703</v>
+      </c>
+      <c r="D135" t="n">
+        <v>703</v>
+      </c>
+      <c r="E135" t="n">
+        <v>703</v>
+      </c>
+      <c r="F135" t="n">
+        <v>26.9959</v>
+      </c>
+      <c r="G135" t="n">
+        <v>26243.02020875003</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>701</v>
+      </c>
+      <c r="C136" t="n">
+        <v>697</v>
+      </c>
+      <c r="D136" t="n">
+        <v>701</v>
+      </c>
+      <c r="E136" t="n">
+        <v>697</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2475.8788</v>
+      </c>
+      <c r="G136" t="n">
+        <v>23767.14140875003</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>700</v>
+      </c>
+      <c r="C137" t="n">
+        <v>700</v>
+      </c>
+      <c r="D137" t="n">
+        <v>700</v>
+      </c>
+      <c r="E137" t="n">
+        <v>700</v>
+      </c>
+      <c r="F137" t="n">
+        <v>115.1864</v>
+      </c>
+      <c r="G137" t="n">
+        <v>23882.32780875003</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>713</v>
+      </c>
+      <c r="C138" t="n">
+        <v>713</v>
+      </c>
+      <c r="D138" t="n">
+        <v>713</v>
+      </c>
+      <c r="E138" t="n">
+        <v>713</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>23883.32780875003</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>711</v>
+      </c>
+      <c r="C139" t="n">
+        <v>711</v>
+      </c>
+      <c r="D139" t="n">
+        <v>711</v>
+      </c>
+      <c r="E139" t="n">
+        <v>711</v>
+      </c>
+      <c r="F139" t="n">
+        <v>81</v>
+      </c>
+      <c r="G139" t="n">
+        <v>23802.32780875003</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>711</v>
+      </c>
+      <c r="C140" t="n">
+        <v>711</v>
+      </c>
+      <c r="D140" t="n">
+        <v>711</v>
+      </c>
+      <c r="E140" t="n">
+        <v>711</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="G140" t="n">
+        <v>23802.32780875003</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>719</v>
+      </c>
+      <c r="C141" t="n">
+        <v>719</v>
+      </c>
+      <c r="D141" t="n">
+        <v>719</v>
+      </c>
+      <c r="E141" t="n">
+        <v>719</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1.0268</v>
+      </c>
+      <c r="G141" t="n">
+        <v>23803.35460875003</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>719</v>
+      </c>
+      <c r="C142" t="n">
+        <v>721</v>
+      </c>
+      <c r="D142" t="n">
+        <v>721</v>
+      </c>
+      <c r="E142" t="n">
+        <v>719</v>
+      </c>
+      <c r="F142" t="n">
+        <v>573.2474999999999</v>
+      </c>
+      <c r="G142" t="n">
+        <v>24376.60210875003</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>711</v>
+      </c>
+      <c r="C143" t="n">
+        <v>711</v>
+      </c>
+      <c r="D143" t="n">
+        <v>711</v>
+      </c>
+      <c r="E143" t="n">
+        <v>711</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1.262</v>
+      </c>
+      <c r="G143" t="n">
+        <v>24375.34010875004</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>706</v>
+      </c>
+      <c r="C144" t="n">
+        <v>700</v>
+      </c>
+      <c r="D144" t="n">
+        <v>706</v>
+      </c>
+      <c r="E144" t="n">
+        <v>700</v>
+      </c>
+      <c r="F144" t="n">
+        <v>751.3378</v>
+      </c>
+      <c r="G144" t="n">
+        <v>23624.00230875003</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>702</v>
+      </c>
+      <c r="C145" t="n">
+        <v>702</v>
+      </c>
+      <c r="D145" t="n">
+        <v>702</v>
+      </c>
+      <c r="E145" t="n">
+        <v>702</v>
+      </c>
+      <c r="F145" t="n">
+        <v>97.4529</v>
+      </c>
+      <c r="G145" t="n">
+        <v>23721.45520875003</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>701</v>
+      </c>
+      <c r="C146" t="n">
+        <v>701</v>
+      </c>
+      <c r="D146" t="n">
+        <v>701</v>
+      </c>
+      <c r="E146" t="n">
+        <v>701</v>
+      </c>
+      <c r="F146" t="n">
+        <v>476.0128</v>
+      </c>
+      <c r="G146" t="n">
+        <v>23245.44240875003</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>701</v>
+      </c>
+      <c r="C147" t="n">
+        <v>702</v>
+      </c>
+      <c r="D147" t="n">
+        <v>702</v>
+      </c>
+      <c r="E147" t="n">
+        <v>701</v>
+      </c>
+      <c r="F147" t="n">
+        <v>783.6581</v>
+      </c>
+      <c r="G147" t="n">
+        <v>24029.10050875003</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>710</v>
+      </c>
+      <c r="C148" t="n">
+        <v>711</v>
+      </c>
+      <c r="D148" t="n">
+        <v>711</v>
+      </c>
+      <c r="E148" t="n">
+        <v>710</v>
+      </c>
+      <c r="F148" t="n">
+        <v>15</v>
+      </c>
+      <c r="G148" t="n">
+        <v>24044.10050875003</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>711</v>
+      </c>
+      <c r="C149" t="n">
+        <v>711</v>
+      </c>
+      <c r="D149" t="n">
+        <v>711</v>
+      </c>
+      <c r="E149" t="n">
+        <v>711</v>
+      </c>
+      <c r="F149" t="n">
         <v>214.9857</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G149" t="n">
         <v>24044.10050875003</v>
       </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>711</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-15 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-15 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N149"/>
+  <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>35232.29249203</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,15 @@
         <v>29074.24269203</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>799</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,20 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,20 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -616,20 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -656,20 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -696,20 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -736,20 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -774,24 +715,15 @@
         <v>34530.50044246999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>775</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -818,20 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -858,20 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -898,20 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -938,20 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -978,20 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1018,20 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1056,22 +946,15 @@
         <v>50067.06677003001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1096,22 +979,15 @@
         <v>47862.26937003001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1138,20 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1178,20 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1218,20 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1258,20 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1298,20 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1338,20 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1378,20 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1418,20 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1458,20 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1498,20 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1538,20 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1578,20 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1618,20 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1658,20 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1698,20 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1738,20 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1778,20 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1818,20 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1858,18 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L37" t="n">
+        <v>1</v>
       </c>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1896,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1932,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1968,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2004,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2040,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2076,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2112,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2148,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2184,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2220,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2256,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2292,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2328,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2364,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2400,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2436,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2472,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2508,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2542,18 +2233,15 @@
         <v>53286.04011007002</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2578,18 +2266,15 @@
         <v>53286.04011007002</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2616,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2650,18 +2332,15 @@
         <v>54304.09921007002</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2686,18 +2365,15 @@
         <v>54304.09921007002</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2724,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2760,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2796,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2832,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2868,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2902,18 +2563,15 @@
         <v>54977.76896267002</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2938,18 +2596,15 @@
         <v>57056.54278890002</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2974,18 +2629,15 @@
         <v>57056.54278890002</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3010,18 +2662,15 @@
         <v>57031.54278890002</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3046,18 +2695,15 @@
         <v>56342.83128890002</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3082,18 +2728,15 @@
         <v>56352.83128890002</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3118,18 +2761,15 @@
         <v>52078.90618890002</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3156,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3192,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3228,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3262,18 +2893,15 @@
         <v>39880.54885714002</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3300,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3336,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3370,18 +2992,15 @@
         <v>37795.39489412002</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3408,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3442,18 +3058,15 @@
         <v>37980.09260605002</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3478,18 +3091,15 @@
         <v>37901.92240605002</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3516,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3552,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3588,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3624,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3660,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3696,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3732,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3768,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3804,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3838,18 +3421,15 @@
         <v>39347.70070875002</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3876,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3912,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3948,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3984,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4020,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4056,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4092,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4128,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4164,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4200,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4236,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4272,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4308,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4344,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4380,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4416,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4452,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4488,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4524,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4560,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4596,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4632,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4668,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4704,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4740,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4776,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4812,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4848,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4884,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4920,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4956,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4992,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5028,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5064,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5100,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5136,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5172,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5208,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5244,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5280,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5316,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5352,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5388,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5424,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5460,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5496,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5532,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5568,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5604,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5640,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5676,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5712,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5746,18 +5170,19 @@
         <v>23721.45520875003</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
+        <v>700</v>
+      </c>
+      <c r="J145" t="n">
+        <v>700</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5782,18 +5207,23 @@
         <v>23245.44240875003</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+        <v>702</v>
+      </c>
+      <c r="J146" t="n">
+        <v>700</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5818,18 +5248,23 @@
         <v>24029.10050875003</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+        <v>701</v>
+      </c>
+      <c r="J147" t="n">
+        <v>700</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5854,18 +5289,19 @@
         <v>24044.10050875003</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
+        <v>702</v>
+      </c>
+      <c r="J148" t="n">
+        <v>702</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5890,20 +5326,25 @@
         <v>24044.10050875003</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+        <v>711</v>
+      </c>
+      <c r="J149" t="n">
+        <v>702</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-15 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>35232.29249203</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -550,11 +550,17 @@
         <v>31072.43882805</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>777</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +589,17 @@
         <v>27058.17014247</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>777</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +628,17 @@
         <v>35751.62614247</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>775</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +667,17 @@
         <v>28379.96404247</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>798</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +706,17 @@
         <v>28247.52214247</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>787</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +745,17 @@
         <v>34530.50044246999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>775</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +788,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +825,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +862,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +899,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +936,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +973,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1006,15 @@
         <v>50067.06677003001</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1043,15 @@
         <v>47862.26937003001</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1084,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1121,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1158,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1195,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1232,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1269,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1306,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1343,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1380,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1417,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1454,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1491,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1528,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1565,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1602,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1639,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1676,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1713,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,14 +1746,16 @@
         <v>49214.57926806001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -1639,7 +1781,7 @@
         <v>49092.38466806</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1814,7 @@
         <v>49386.88826806001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1847,7 @@
         <v>48420.37596806001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1880,7 @@
         <v>51680.02680382001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1913,7 @@
         <v>54436.19320382001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1946,7 @@
         <v>54436.19320382001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1979,7 @@
         <v>54436.19320382001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +2012,7 @@
         <v>54436.19320382001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +2045,7 @@
         <v>54436.19320382001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +2078,7 @@
         <v>55200.09007639001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2233,7 +2375,7 @@
         <v>53286.04011007002</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2408,7 @@
         <v>53286.04011007002</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2332,7 +2474,7 @@
         <v>54304.09921007002</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2507,7 @@
         <v>54304.09921007002</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2540,7 @@
         <v>54304.09921007002</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2573,7 @@
         <v>54656.71866267002</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2606,7 @@
         <v>55245.12366267002</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2563,7 +2705,7 @@
         <v>54977.76896267002</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2738,7 @@
         <v>57056.54278890002</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2771,7 @@
         <v>57056.54278890002</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2804,7 @@
         <v>57031.54278890002</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2837,7 @@
         <v>56342.83128890002</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2870,7 @@
         <v>56352.83128890002</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2903,7 @@
         <v>52078.90618890002</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2936,7 @@
         <v>48387.87705714002</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2969,7 @@
         <v>48387.87705714002</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2893,7 +3035,7 @@
         <v>39880.54885714002</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +3068,7 @@
         <v>40201.27465714002</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +3101,7 @@
         <v>37533.71459412002</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +3134,7 @@
         <v>37795.39489412002</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3167,7 @@
         <v>37991.25330605002</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3200,7 @@
         <v>37980.09260605002</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3233,7 @@
         <v>37901.92240605002</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3266,7 @@
         <v>37901.92240605002</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3299,7 @@
         <v>39874.06495993002</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3332,7 @@
         <v>39744.19655993002</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3365,7 @@
         <v>39715.19655993002</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3398,7 @@
         <v>40820.65055836002</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3431,7 @@
         <v>40830.65055836002</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3464,7 @@
         <v>40737.81875836002</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3497,7 @@
         <v>40747.87180875002</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3530,7 @@
         <v>39347.70070875002</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3563,7 @@
         <v>39347.70070875002</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3596,7 @@
         <v>37609.57260875002</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3629,7 @@
         <v>41603.47050875002</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3662,7 @@
         <v>29777.15000875002</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3695,7 @@
         <v>29778.15000875002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3728,7 @@
         <v>29576.95710875002</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3761,7 @@
         <v>30107.66920875002</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -5170,14 +5312,10 @@
         <v>23721.45520875003</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>700</v>
-      </c>
-      <c r="J145" t="n">
-        <v>700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
@@ -5207,19 +5345,11 @@
         <v>23245.44240875003</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>702</v>
-      </c>
-      <c r="J146" t="n">
-        <v>700</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5248,19 +5378,11 @@
         <v>24029.10050875003</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>701</v>
-      </c>
-      <c r="J147" t="n">
-        <v>700</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5289,14 +5411,10 @@
         <v>24044.10050875003</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>702</v>
-      </c>
-      <c r="J148" t="n">
-        <v>702</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
@@ -5326,25 +5444,17 @@
         <v>24044.10050875003</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>711</v>
-      </c>
-      <c r="J149" t="n">
-        <v>702</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
       <c r="M149" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-15 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>29074.24269203</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>31072.43882805</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,17 +550,11 @@
         <v>31072.43882805</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>777</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -589,17 +583,11 @@
         <v>27058.17014247</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>777</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -628,17 +616,11 @@
         <v>35751.62614247</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>775</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -667,17 +649,11 @@
         <v>28379.96404247</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>798</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -706,17 +682,11 @@
         <v>28247.52214247</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>787</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -745,17 +715,11 @@
         <v>34530.50044246999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>775</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -788,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -825,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -862,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -899,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -936,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -973,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1010,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1047,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1084,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1121,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1158,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1195,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1232,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1269,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1306,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1343,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1380,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1417,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1454,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1487,15 +1375,11 @@
         <v>44461.34940280001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1528,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1565,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1598,15 +1474,11 @@
         <v>56684.94296806001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1635,15 +1507,11 @@
         <v>54088.51806806001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1672,15 +1540,11 @@
         <v>53994.32696806001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1709,15 +1573,11 @@
         <v>49214.57926806001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1746,16 +1606,14 @@
         <v>49214.57926806001</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
       <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -1781,7 +1639,7 @@
         <v>49092.38466806</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1814,7 +1672,7 @@
         <v>49386.88826806001</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1847,7 +1705,7 @@
         <v>48420.37596806001</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1880,7 +1738,7 @@
         <v>51680.02680382001</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1913,7 +1771,7 @@
         <v>54436.19320382001</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1946,7 +1804,7 @@
         <v>54436.19320382001</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2078,7 +1936,7 @@
         <v>55200.09007639001</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2111,7 +1969,7 @@
         <v>55200.09007639001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2474,7 +2332,7 @@
         <v>54304.09921007002</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2507,7 +2365,7 @@
         <v>54304.09921007002</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2540,7 +2398,7 @@
         <v>54304.09921007002</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2573,7 +2431,7 @@
         <v>54656.71866267002</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2606,7 +2464,7 @@
         <v>55245.12366267002</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2804,7 +2662,7 @@
         <v>57031.54278890002</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2837,7 +2695,7 @@
         <v>56342.83128890002</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2870,7 +2728,7 @@
         <v>56352.83128890002</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2903,7 +2761,7 @@
         <v>52078.90618890002</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2936,7 +2794,7 @@
         <v>48387.87705714002</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2969,7 +2827,7 @@
         <v>48387.87705714002</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3035,7 +2893,7 @@
         <v>39880.54885714002</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3068,7 +2926,7 @@
         <v>40201.27465714002</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3101,7 +2959,7 @@
         <v>37533.71459412002</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3134,7 +2992,7 @@
         <v>37795.39489412002</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3167,7 +3025,7 @@
         <v>37991.25330605002</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3200,7 +3058,7 @@
         <v>37980.09260605002</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3233,7 +3091,7 @@
         <v>37901.92240605002</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3266,7 +3124,7 @@
         <v>37901.92240605002</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3299,7 +3157,7 @@
         <v>39874.06495993002</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3332,7 +3190,7 @@
         <v>39744.19655993002</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3365,7 +3223,7 @@
         <v>39715.19655993002</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3398,7 +3256,7 @@
         <v>40820.65055836002</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3431,7 +3289,7 @@
         <v>40830.65055836002</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3464,7 +3322,7 @@
         <v>40737.81875836002</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3497,7 +3355,7 @@
         <v>40747.87180875002</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3530,7 +3388,7 @@
         <v>39347.70070875002</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3563,7 +3421,7 @@
         <v>39347.70070875002</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3596,7 +3454,7 @@
         <v>37609.57260875002</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3629,7 +3487,7 @@
         <v>41603.47050875002</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3662,7 +3520,7 @@
         <v>29777.15000875002</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3695,7 +3553,7 @@
         <v>29778.15000875002</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3728,7 +3586,7 @@
         <v>29576.95710875002</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3761,7 +3619,7 @@
         <v>30107.66920875002</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4982,10 +4840,14 @@
         <v>26243.02020875003</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>700</v>
+      </c>
+      <c r="J135" t="n">
+        <v>700</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
@@ -5015,11 +4877,19 @@
         <v>23767.14140875003</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>703</v>
+      </c>
+      <c r="J136" t="n">
+        <v>700</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5048,11 +4918,19 @@
         <v>23882.32780875003</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>697</v>
+      </c>
+      <c r="J137" t="n">
+        <v>700</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5081,11 +4959,19 @@
         <v>23883.32780875003</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>700</v>
+      </c>
+      <c r="J138" t="n">
+        <v>700</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5114,11 +5000,19 @@
         <v>23802.32780875003</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>713</v>
+      </c>
+      <c r="J139" t="n">
+        <v>700</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5147,11 +5041,19 @@
         <v>23802.32780875003</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>711</v>
+      </c>
+      <c r="J140" t="n">
+        <v>700</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5180,11 +5082,19 @@
         <v>23803.35460875003</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>711</v>
+      </c>
+      <c r="J141" t="n">
+        <v>700</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5216,8 +5126,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>700</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5249,8 +5165,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>700</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5282,8 +5204,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>700</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5315,8 +5243,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>700</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5348,8 +5282,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>700</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5378,11 +5318,19 @@
         <v>24029.10050875003</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>701</v>
+      </c>
+      <c r="J147" t="n">
+        <v>700</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5411,11 +5359,19 @@
         <v>24044.10050875003</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>702</v>
+      </c>
+      <c r="J148" t="n">
+        <v>700</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5444,17 +5400,25 @@
         <v>24044.10050875003</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>711</v>
+      </c>
+      <c r="J149" t="n">
+        <v>700</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
       <c r="M149" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-15 BackTest STRAT.xlsx
@@ -484,11 +484,17 @@
         <v>29074.24269203</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>799</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>31072.43882805</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>757</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>31072.43882805</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>777</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,7 +605,11 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +642,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +679,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +716,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +753,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +790,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +827,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +864,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +901,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +938,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +975,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1012,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1049,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1086,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1123,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1160,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1197,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1234,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1271,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1308,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1345,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1382,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1419,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1456,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1489,15 @@
         <v>44461.34940280001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1530,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1567,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1600,15 @@
         <v>56684.94296806001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1637,15 @@
         <v>54088.51806806001</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1674,15 @@
         <v>53994.32696806001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1711,15 @@
         <v>49214.57926806001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1752,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1789,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1826,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1863,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1900,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1937,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1974,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2007,15 @@
         <v>54436.19320382001</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2044,15 @@
         <v>54436.19320382001</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2081,15 @@
         <v>54436.19320382001</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2122,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2155,15 @@
         <v>55200.09007639001</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2196,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2233,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2270,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2307,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2344,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2381,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2418,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2455,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2492,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2529,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2566,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2603,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2640,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2677,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2714,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,14 +2747,16 @@
         <v>57279.76126267002</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
@@ -2530,7 +2782,7 @@
         <v>56591.09906267002</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2629,7 +2881,7 @@
         <v>57056.54278890002</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2914,7 @@
         <v>57031.54278890002</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2947,7 @@
         <v>56342.83128890002</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2980,7 @@
         <v>56352.83128890002</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +3013,7 @@
         <v>52078.90618890002</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +3046,7 @@
         <v>48387.87705714002</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -4840,14 +5092,10 @@
         <v>26243.02020875003</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>700</v>
-      </c>
-      <c r="J135" t="n">
-        <v>700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
@@ -4877,19 +5125,11 @@
         <v>23767.14140875003</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>703</v>
-      </c>
-      <c r="J136" t="n">
-        <v>700</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4918,19 +5158,11 @@
         <v>23882.32780875003</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>697</v>
-      </c>
-      <c r="J137" t="n">
-        <v>700</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4959,19 +5191,11 @@
         <v>23883.32780875003</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>700</v>
-      </c>
-      <c r="J138" t="n">
-        <v>700</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5000,19 +5224,11 @@
         <v>23802.32780875003</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>713</v>
-      </c>
-      <c r="J139" t="n">
-        <v>700</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5041,19 +5257,11 @@
         <v>23802.32780875003</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>711</v>
-      </c>
-      <c r="J140" t="n">
-        <v>700</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5082,19 +5290,11 @@
         <v>23803.35460875003</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>711</v>
-      </c>
-      <c r="J141" t="n">
-        <v>700</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5126,14 +5326,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>700</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5165,14 +5359,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>700</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5204,14 +5392,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>700</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5243,14 +5425,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>700</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5282,14 +5458,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>700</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5318,19 +5488,11 @@
         <v>24029.10050875003</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>701</v>
-      </c>
-      <c r="J147" t="n">
-        <v>700</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5359,19 +5521,11 @@
         <v>24044.10050875003</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>702</v>
-      </c>
-      <c r="J148" t="n">
-        <v>700</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5400,19 +5554,11 @@
         <v>24044.10050875003</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>711</v>
-      </c>
-      <c r="J149" t="n">
-        <v>700</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
